--- a/vignette/qpcr.xlsx
+++ b/vignette/qpcr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="50">
   <si>
     <t>Sample</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>JAM-A</t>
-  </si>
-  <si>
-    <t>Psma3</t>
   </si>
   <si>
     <t>Sgca</t>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,13 +540,13 @@
         <v>33.2779998779297</v>
       </c>
       <c r="E2">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F2">
-        <v>-20.3265192266086</v>
+        <v>-20.4290638460246</v>
       </c>
       <c r="G2">
-        <v>7.60515387143651e-007</v>
+        <v>7.08335485185932e-007</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -566,13 +563,13 @@
         <v>33.9939994812012</v>
       </c>
       <c r="E3">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F3">
-        <v>-21.04251882988</v>
+        <v>-21.1450634492961</v>
       </c>
       <c r="G3">
-        <v>4.62988973346117e-007</v>
+        <v>4.31222726870236e-007</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -586,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -600,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -617,13 +614,13 @@
         <v>32.4370002746582</v>
       </c>
       <c r="E6">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F6">
-        <v>-19.4855196233371</v>
+        <v>-19.5880642427531</v>
       </c>
       <c r="G6">
-        <v>1.36230425244355e-006</v>
+        <v>1.26883487163842e-006</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -640,13 +637,13 @@
         <v>29.7059993743896</v>
       </c>
       <c r="E7">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F7">
-        <v>-16.7545187230685</v>
+        <v>-16.8570633424846</v>
       </c>
       <c r="G7">
-        <v>9.04455702820304e-006</v>
+        <v>8.42399877657428e-006</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -663,13 +660,13 @@
         <v>34.6119995117188</v>
       </c>
       <c r="E8">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F8">
-        <v>-21.6605188603976</v>
+        <v>-21.7630634798137</v>
       </c>
       <c r="G8">
-        <v>3.01671374020009e-007</v>
+        <v>2.8097332768733e-007</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -686,13 +683,13 @@
         <v>30.4640007019043</v>
       </c>
       <c r="E9">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F9">
-        <v>-17.5125200505832</v>
+        <v>-17.6150646699992</v>
       </c>
       <c r="G9">
-        <v>5.34818184131297e-006</v>
+        <v>4.98123646604596e-006</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -709,13 +706,13 @@
         <v>29.6849994659424</v>
       </c>
       <c r="E10">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F10">
-        <v>-16.7335188146212</v>
+        <v>-16.8360634340373</v>
       </c>
       <c r="G10">
-        <v>9.1771726845535e-006</v>
+        <v>8.54751550861183e-006</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -732,13 +729,13 @@
         <v>32.3470001220703</v>
       </c>
       <c r="E11">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F11">
-        <v>-19.3955194707492</v>
+        <v>-19.4980640901652</v>
       </c>
       <c r="G11">
-        <v>1.44999617909042e-006</v>
+        <v>1.35051014666684e-006</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -755,13 +752,13 @@
         <v>34.3709983825684</v>
       </c>
       <c r="E12">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F12">
-        <v>-21.4195177312472</v>
+        <v>-21.5220623506633</v>
       </c>
       <c r="G12">
-        <v>3.56518992232089e-007</v>
+        <v>3.32057782932163e-007</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -775,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -792,13 +789,13 @@
         <v>32.0900001525879</v>
       </c>
       <c r="E14">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F14">
-        <v>-19.1385195012668</v>
+        <v>-19.2410641206828</v>
       </c>
       <c r="G14">
-        <v>1.7327326444362e-006</v>
+        <v>1.61384771319872e-006</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -815,13 +812,13 @@
         <v>30.2199993133545</v>
       </c>
       <c r="E15">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F15">
-        <v>-17.2685186620334</v>
+        <v>-17.3710632814494</v>
       </c>
       <c r="G15">
-        <v>6.33370602569323e-006</v>
+        <v>5.89914261640976e-006</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -838,13 +835,13 @@
         <v>37.3050003051758</v>
       </c>
       <c r="E16">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F16">
-        <v>-24.3535196538546</v>
+        <v>-24.4560642732707</v>
       </c>
       <c r="G16">
-        <v>4.6650906179103e-008</v>
+        <v>4.34501297690334e-008</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -861,13 +858,13 @@
         <v>26.806999206543</v>
       </c>
       <c r="E17">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F17">
-        <v>-13.8555185552218</v>
+        <v>-13.9580631746379</v>
       </c>
       <c r="G17">
-        <v>6.74641898401793e-005</v>
+        <v>6.28353882787289e-005</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -884,13 +881,13 @@
         <v>33.1749992370605</v>
       </c>
       <c r="E18">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F18">
-        <v>-20.2235185857394</v>
+        <v>-20.3260632051555</v>
       </c>
       <c r="G18">
-        <v>8.16797289363057e-007</v>
+        <v>7.60755816437217e-007</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -907,13 +904,13 @@
         <v>27.5060005187988</v>
       </c>
       <c r="E19">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F19">
-        <v>-14.5545198674777</v>
+        <v>-14.6570644868937</v>
       </c>
       <c r="G19">
-        <v>4.15578381543762e-005</v>
+        <v>3.8706503444878e-005</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -930,13 +927,13 @@
         <v>28.0349998474121</v>
       </c>
       <c r="E20">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F20">
-        <v>-15.083519196091</v>
+        <v>-15.186063815507</v>
       </c>
       <c r="G20">
-        <v>2.88010473923922e-005</v>
+        <v>2.68249718854139e-005</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -950,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -967,13 +964,13 @@
         <v>28.6420001983643</v>
       </c>
       <c r="E22">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F22">
-        <v>-15.6905195470431</v>
+        <v>-15.7930641664592</v>
       </c>
       <c r="G22">
-        <v>1.89096272826615e-005</v>
+        <v>1.76122143514489e-005</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -981,22 +978,22 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>22.9820003509521</v>
+        <v>31.8700008392334</v>
       </c>
       <c r="E23">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F23">
-        <v>-10.030519699631</v>
+        <v>-19.0210648073283</v>
       </c>
       <c r="G23">
-        <v>0.000956120650570514</v>
+        <v>1.87970174037037e-006</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1007,19 +1004,19 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>31.8700008392334</v>
+        <v>30.6350002288818</v>
       </c>
       <c r="E24">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F24">
-        <v>-18.9185201879123</v>
+        <v>-17.7860641969768</v>
       </c>
       <c r="G24">
-        <v>2.01817094680373e-006</v>
+        <v>4.42446915623833e-006</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1030,19 +1027,19 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>30.6350002288818</v>
+        <v>32.7070007324219</v>
       </c>
       <c r="E25">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F25">
-        <v>-17.6835195775607</v>
+        <v>-19.8580647005168</v>
       </c>
       <c r="G25">
-        <v>4.75039997802522e-006</v>
+        <v>1.05226922557815e-006</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1053,19 +1050,19 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>32.7070007324219</v>
+        <v>31.0809993743896</v>
       </c>
       <c r="E26">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F26">
-        <v>-19.7555200811007</v>
+        <v>-18.2320633424846</v>
       </c>
       <c r="G26">
-        <v>1.12978518541938e-006</v>
+        <v>3.24789552661402e-006</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1076,19 +1073,19 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>31.0809993743896</v>
+        <v>29.3969993591309</v>
       </c>
       <c r="E27">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F27">
-        <v>-18.1295187230685</v>
+        <v>-16.5480633272258</v>
       </c>
       <c r="G27">
-        <v>3.48715343997855e-006</v>
+        <v>1.04360600248702e-005</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1099,19 +1096,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>29.3969993591309</v>
+        <v>27.443000793457</v>
       </c>
       <c r="E28">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F28">
-        <v>-16.4455187078097</v>
+        <v>-14.5940647615519</v>
       </c>
       <c r="G28">
-        <v>1.12048378149306e-005</v>
+        <v>4.04341900561435e-005</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1122,19 +1119,19 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>27.443000793457</v>
+        <v>31.8880004882812</v>
       </c>
       <c r="E29">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F29">
-        <v>-14.4915201421359</v>
+        <v>-19.0390644563762</v>
       </c>
       <c r="G29">
-        <v>4.34127956985187e-005</v>
+        <v>1.85639550963963e-006</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1145,19 +1142,19 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>31.8880004882812</v>
+        <v>27.9610004425049</v>
       </c>
       <c r="E30">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F30">
-        <v>-18.9365198369601</v>
+        <v>-15.1120644105998</v>
       </c>
       <c r="G30">
-        <v>1.99314785046345e-006</v>
+        <v>2.82367894834839e-005</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1168,19 +1165,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>27.9610004425049</v>
+        <v>27.2630004882812</v>
       </c>
       <c r="E31">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F31">
-        <v>-15.0095197911837</v>
+        <v>-14.4140644563762</v>
       </c>
       <c r="G31">
-        <v>3.03168672681825e-005</v>
+        <v>4.5807252019279e-005</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1191,19 +1188,19 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>27.2630004882812</v>
+        <v>29.4370002746582</v>
       </c>
       <c r="E32">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F32">
-        <v>-14.3115198369601</v>
+        <v>-16.5880642427531</v>
       </c>
       <c r="G32">
-        <v>4.91816670659728e-005</v>
+        <v>1.01506789731074e-005</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1214,19 +1211,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>29.4370002746582</v>
+        <v>32.9889984130859</v>
       </c>
       <c r="E33">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F33">
-        <v>-16.4855196233371</v>
+        <v>-20.1400623811809</v>
       </c>
       <c r="G33">
-        <v>1.08984340195484e-005</v>
+        <v>8.65440288197078e-007</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1237,19 +1234,19 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>32.9889984130859</v>
+        <v>31.4939994812012</v>
       </c>
       <c r="E34">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F34">
-        <v>-20.0375177617648</v>
+        <v>-18.6450634492961</v>
       </c>
       <c r="G34">
-        <v>9.29193397186853e-007</v>
+        <v>2.43936411497359e-006</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1260,19 +1257,19 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>31.4939994812012</v>
+        <v>29.3799991607666</v>
       </c>
       <c r="E35">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F35">
-        <v>-18.54251882988</v>
+        <v>-16.5310631288615</v>
       </c>
       <c r="G35">
-        <v>2.6190611413411e-006</v>
+        <v>1.05597621941951e-005</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1283,19 +1280,19 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>29.3799991607666</v>
+        <v>27.5139999389648</v>
       </c>
       <c r="E36">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F36">
-        <v>-16.4285185094455</v>
+        <v>-14.6650639070598</v>
       </c>
       <c r="G36">
-        <v>1.13376525689026e-005</v>
+        <v>3.84924784800983e-005</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1306,19 +1303,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>27.5139999389648</v>
+        <v>35.1990013122559</v>
       </c>
       <c r="E37">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F37">
-        <v>-14.5625192876437</v>
+        <v>-22.3500652803508</v>
       </c>
       <c r="G37">
-        <v>4.13280469292407e-005</v>
+        <v>1.87050961766135e-007</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1329,19 +1326,19 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>35.1990013122559</v>
+        <v>25.0979995727539</v>
       </c>
       <c r="E38">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F38">
-        <v>-22.2475206609347</v>
+        <v>-12.2490635408488</v>
       </c>
       <c r="G38">
-        <v>2.00830168159405e-007</v>
+        <v>0.000205430278731901</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1352,19 +1349,19 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>25.0979995727539</v>
+        <v>29.5160007476807</v>
       </c>
       <c r="E39">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F39">
-        <v>-12.1465189214328</v>
+        <v>-16.6670647157756</v>
       </c>
       <c r="G39">
-        <v>0.000220563407069477</v>
+        <v>9.60978299934837e-006</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1375,19 +1372,19 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>29.5160007476807</v>
+        <v>26.1110000610352</v>
       </c>
       <c r="E40">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F40">
-        <v>-16.5645200963595</v>
+        <v>-13.2620640291301</v>
       </c>
       <c r="G40">
-        <v>1.03176926625348e-005</v>
+        <v>0.000101793705254283</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1398,19 +1395,19 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>26.1110000610352</v>
+        <v>27.0189990997314</v>
       </c>
       <c r="E41">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F41">
-        <v>-13.159519409714</v>
+        <v>-14.1700630678264</v>
       </c>
       <c r="G41">
-        <v>0.00010929239149995</v>
+        <v>5.42482803957409e-005</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1421,19 +1418,19 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>27.0189990997314</v>
+        <v>33.181999206543</v>
       </c>
       <c r="E42">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F42">
-        <v>-14.0675184484103</v>
+        <v>-20.3330631746379</v>
       </c>
       <c r="G42">
-        <v>5.82445081883971e-005</v>
+        <v>7.57073562673179e-007</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1444,19 +1441,19 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>33.181999206543</v>
+        <v>27.2299995422363</v>
       </c>
       <c r="E43">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F43">
-        <v>-20.2305185552218</v>
+        <v>-14.3810635103312</v>
       </c>
       <c r="G43">
-        <v>8.12843780460162e-007</v>
+        <v>4.68671466595375e-005</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1464,22 +1461,22 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>27.2299995422363</v>
+        <v>32.0789985656738</v>
       </c>
       <c r="E44">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F44">
-        <v>-14.2785188909152</v>
+        <v>-19.2300625337687</v>
       </c>
       <c r="G44">
-        <v>5.03196393962113e-005</v>
+        <v>1.62620150569835e-006</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1487,22 +1484,22 @@
         <v>7</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>20.943000793457</v>
+        <v>31.0009994506836</v>
       </c>
       <c r="E45">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F45">
-        <v>-7.9915201421359</v>
+        <v>-18.1520634187785</v>
       </c>
       <c r="G45">
-        <v>0.00392927772527216</v>
+        <v>3.43308398393807e-006</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1513,19 +1510,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>32.0789985656738</v>
+        <v>32.7309989929199</v>
       </c>
       <c r="E46">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F46">
-        <v>-19.1275179143527</v>
+        <v>-19.8820629610148</v>
       </c>
       <c r="G46">
-        <v>1.74599648548616e-006</v>
+        <v>1.03491021361255e-006</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1536,19 +1533,19 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>31.0009994506836</v>
+        <v>31.3299999237061</v>
       </c>
       <c r="E47">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F47">
-        <v>-18.0495187993625</v>
+        <v>-18.481063891801</v>
       </c>
       <c r="G47">
-        <v>3.68598390133736e-006</v>
+        <v>2.73303640562891e-006</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1559,19 +1556,19 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>32.7309989929199</v>
+        <v>29.621000289917</v>
       </c>
       <c r="E48">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F48">
-        <v>-19.7795183415988</v>
+        <v>-16.7720642580119</v>
       </c>
       <c r="G48">
-        <v>1.11114741280803e-006</v>
+        <v>8.93522656535953e-006</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1582,19 +1579,19 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>31.3299999237061</v>
+        <v>26.8729991912842</v>
       </c>
       <c r="E49">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F49">
-        <v>-18.3785192723849</v>
+        <v>-14.0240631593791</v>
       </c>
       <c r="G49">
-        <v>2.93436695404152e-006</v>
+        <v>6.00255748585004e-005</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1605,19 +1602,19 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>29.621000289917</v>
+        <v>30.7019996643066</v>
       </c>
       <c r="E50">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F50">
-        <v>-16.6695196385959</v>
+        <v>-17.8530636324016</v>
       </c>
       <c r="G50">
-        <v>9.59344467796486e-006</v>
+        <v>4.22369288583119e-006</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1628,19 +1625,19 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>26.8729991912842</v>
+        <v>27.0170001983643</v>
       </c>
       <c r="E51">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F51">
-        <v>-13.921518539963</v>
+        <v>-14.1680641664592</v>
       </c>
       <c r="G51">
-        <v>6.4447390052822e-005</v>
+        <v>5.43234952644192e-005</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1651,19 +1648,19 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>30.7019996643066</v>
+        <v>26.8349990844727</v>
       </c>
       <c r="E52">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F52">
-        <v>-17.7505190129855</v>
+        <v>-13.9860630525676</v>
       </c>
       <c r="G52">
-        <v>4.53483341922454e-006</v>
+        <v>6.16276347457255e-005</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1674,19 +1671,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>27.0170001983643</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F53">
-        <v>-14.0655195470431</v>
-      </c>
-      <c r="G53">
-        <v>5.83252637994997e-005</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1697,19 +1685,19 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>26.8349990844727</v>
+        <v>32.7830009460449</v>
       </c>
       <c r="E54">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F54">
-        <v>-13.8835184331515</v>
+        <v>-19.9340649141398</v>
       </c>
       <c r="G54">
-        <v>6.61674665149529e-005</v>
+        <v>9.98271161794754e-007</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1720,10 +1708,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>33.7130012512207</v>
       </c>
       <c r="E55">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F55">
+        <v>-20.8640652193156</v>
+      </c>
+      <c r="G55">
+        <v>5.23950835825628e-007</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1734,19 +1731,19 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>32.7830009460449</v>
+        <v>29.4540004730225</v>
       </c>
       <c r="E56">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F56">
-        <v>-19.8315202947238</v>
+        <v>-16.6050644411174</v>
       </c>
       <c r="G56">
-        <v>1.07180932618023e-006</v>
+        <v>1.00317690027878e-005</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1757,19 +1754,19 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>33.7130012512207</v>
+        <v>26.5230007171631</v>
       </c>
       <c r="E57">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F57">
-        <v>-20.7615205998996</v>
+        <v>-13.674064685258</v>
       </c>
       <c r="G57">
-        <v>5.62547946680338e-007</v>
+        <v>7.6506153429411e-005</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1780,19 +1777,19 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>29.4540004730225</v>
+        <v>33.9690017700195</v>
       </c>
       <c r="E58">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F58">
-        <v>-16.5025198217013</v>
+        <v>-21.1200657381144</v>
       </c>
       <c r="G58">
-        <v>1.0770764484414e-005</v>
+        <v>4.38759671276106e-007</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1803,19 +1800,19 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>26.5230007171631</v>
+        <v>24.1580009460449</v>
       </c>
       <c r="E59">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F59">
-        <v>-13.571520065842</v>
+        <v>-11.3090649141398</v>
       </c>
       <c r="G59">
-        <v>8.21420190165502e-005</v>
+        <v>0.000394123415657582</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1826,19 +1823,19 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>33.9690017700195</v>
+        <v>28.9069995880127</v>
       </c>
       <c r="E60">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F60">
-        <v>-21.0175211186984</v>
+        <v>-16.0580635561076</v>
       </c>
       <c r="G60">
-        <v>4.71081130681996e-007</v>
+        <v>1.46568686995283e-005</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1849,19 +1846,19 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>24.1580009460449</v>
+        <v>24.9699993133545</v>
       </c>
       <c r="E61">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F61">
-        <v>-11.2065202947238</v>
+        <v>-12.1210632814494</v>
       </c>
       <c r="G61">
-        <v>0.000423156722075736</v>
+        <v>0.000224489675899208</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1872,19 +1869,19 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>28.9069995880127</v>
+        <v>26.0270004272461</v>
       </c>
       <c r="E62">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F62">
-        <v>-15.9555189366916</v>
+        <v>-13.178064395341</v>
       </c>
       <c r="G62">
-        <v>1.57365745560657e-005</v>
+        <v>0.000107896493828358</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1895,19 +1892,19 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>24.9699993133545</v>
+        <v>30.9810009002686</v>
       </c>
       <c r="E63">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F63">
-        <v>-12.0185186620334</v>
+        <v>-18.1320648683635</v>
       </c>
       <c r="G63">
-        <v>0.00024102682464288</v>
+        <v>3.48100455279869e-006</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1918,19 +1915,19 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>26.0270004272461</v>
+        <v>26.0540008544922</v>
       </c>
       <c r="E64">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F64">
-        <v>-13.075519775925</v>
+        <v>-13.2050648225871</v>
       </c>
       <c r="G64">
-        <v>0.000115844745168706</v>
+        <v>0.000105895960465349</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1938,22 +1935,22 @@
         <v>7</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>30.9810009002686</v>
+        <v>33.0019989013672</v>
       </c>
       <c r="E65">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F65">
-        <v>-18.0295202489474</v>
+        <v>-20.1530628694621</v>
       </c>
       <c r="G65">
-        <v>3.73743456382903e-006</v>
+        <v>8.57676620561726e-007</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1961,22 +1958,13 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66">
-        <v>26.0540008544922</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F66">
-        <v>-13.1025202031711</v>
-      </c>
-      <c r="G66">
-        <v>0.000113696841474932</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1984,22 +1972,22 @@
         <v>7</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>19.8110008239746</v>
+        <v>39.1189994812012</v>
       </c>
       <c r="E67">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F67">
-        <v>-6.85952017265347</v>
+        <v>-26.2700634492961</v>
       </c>
       <c r="G67">
-        <v>0.00861149734782761</v>
+        <v>1.23572807519297e-008</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2010,19 +1998,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>33.0019989013672</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F68">
-        <v>-20.0505182500461</v>
-      </c>
-      <c r="G68">
-        <v>9.20857814936862e-007</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2033,10 +2012,10 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2047,19 +2026,10 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>39.1189994812012</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F70">
-        <v>-26.16751882988</v>
-      </c>
-      <c r="G70">
-        <v>1.3267586266174e-008</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2070,10 +2040,10 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2084,10 +2054,19 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>32.4729995727539</v>
       </c>
       <c r="E72">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F72">
+        <v>-19.6240635408488</v>
+      </c>
+      <c r="G72">
+        <v>1.23756562393324e-006</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2098,10 +2077,19 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>30.7479991912842</v>
       </c>
       <c r="E73">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F73">
+        <v>-17.8990631593791</v>
+      </c>
+      <c r="G73">
+        <v>4.0911470963045e-006</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2112,10 +2100,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2126,19 +2114,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75">
-        <v>32.4729995727539</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F75">
-        <v>-19.5215189214328</v>
-      </c>
-      <c r="G75">
-        <v>1.32873153934143e-006</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2149,19 +2128,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76">
-        <v>30.7479991912842</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F76">
-        <v>-17.796518539963</v>
-      </c>
-      <c r="G76">
-        <v>4.39252357516852e-006</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2172,10 +2142,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2156,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E78">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2200,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2228,10 +2198,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2242,10 +2212,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2256,10 +2226,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2270,10 +2240,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2284,10 +2254,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2295,13 +2265,22 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>32.685001373291</v>
       </c>
       <c r="E86">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F86">
+        <v>-19.8360653413859</v>
+      </c>
+      <c r="G86">
+        <v>1.06843802602213e-006</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2309,13 +2288,22 @@
         <v>7</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>33.7430000305176</v>
       </c>
       <c r="E87">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F87">
+        <v>-20.8940639986125</v>
+      </c>
+      <c r="G87">
+        <v>5.13168517750774e-007</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2323,13 +2311,13 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2337,13 +2325,22 @@
         <v>7</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>35.0769996643066</v>
       </c>
       <c r="E89">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F89">
+        <v>-22.2280636324016</v>
+      </c>
+      <c r="G89">
+        <v>2.0355702786648e-007</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2354,19 +2351,19 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>32.685001373291</v>
+        <v>33.9210014343262</v>
       </c>
       <c r="E90">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F90">
-        <v>-19.7335207219699</v>
+        <v>-21.0720654024211</v>
       </c>
       <c r="G90">
-        <v>1.14714506895829e-006</v>
+        <v>4.5360333953793e-007</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2377,19 +2374,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>33.7430000305176</v>
+        <v>8.83199977874756</v>
       </c>
       <c r="E91">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F91">
-        <v>-20.7915193791964</v>
+        <v>4.01693625315752</v>
       </c>
       <c r="G91">
-        <v>5.50971343536065e-007</v>
+        <v>16.1889358772108</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2400,10 +2397,19 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>35.1469993591309</v>
       </c>
       <c r="E92">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F92">
+        <v>-22.2980633272258</v>
+      </c>
+      <c r="G92">
+        <v>1.93916200533923e-007</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2414,19 +2420,19 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>35.0769996643066</v>
+        <v>31.9769992828369</v>
       </c>
       <c r="E93">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F93">
-        <v>-22.1255190129855</v>
+        <v>-19.1280632509318</v>
       </c>
       <c r="G93">
-        <v>2.18552162204681e-007</v>
+        <v>1.74533662613297e-006</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2437,19 +2443,19 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>33.9210014343262</v>
+        <v>30.0790004730225</v>
       </c>
       <c r="E94">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F94">
-        <v>-20.969520783005</v>
+        <v>-17.2300644411174</v>
       </c>
       <c r="G94">
-        <v>4.87018265487278e-007</v>
+        <v>6.50479742296855e-006</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2460,19 +2466,19 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>8.83199977874756</v>
+        <v>33.9560012817383</v>
       </c>
       <c r="E95">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F95">
-        <v>4.11948087257358</v>
+        <v>-21.1070652498332</v>
       </c>
       <c r="G95">
-        <v>17.3815022592987</v>
+        <v>4.4273131300904e-007</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2483,19 +2489,19 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D96">
-        <v>35.1469993591309</v>
+        <v>35.3120002746582</v>
       </c>
       <c r="E96">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F96">
-        <v>-22.1955187078097</v>
+        <v>-22.4630642427531</v>
       </c>
       <c r="G96">
-        <v>2.08201138311984e-007</v>
+        <v>1.72959279874629e-007</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2506,19 +2512,19 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>31.9769992828369</v>
+        <v>33.5900001525879</v>
       </c>
       <c r="E97">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F97">
-        <v>-19.0255186315158</v>
+        <v>-20.7410641206828</v>
       </c>
       <c r="G97">
-        <v>1.87390775653586e-006</v>
+        <v>5.70581330902608e-007</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2529,19 +2535,19 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>30.0790004730225</v>
+        <v>31.181999206543</v>
       </c>
       <c r="E98">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F98">
-        <v>-17.1275198217013</v>
+        <v>-18.3330631746379</v>
       </c>
       <c r="G98">
-        <v>6.9839767086092e-006</v>
+        <v>3.02829425069272e-006</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2552,19 +2558,19 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D99">
-        <v>33.9560012817383</v>
+        <v>27.7439994812012</v>
       </c>
       <c r="E99">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F99">
-        <v>-21.0045206304171</v>
+        <v>-14.8950634492961</v>
       </c>
       <c r="G99">
-        <v>4.7534534546904e-007</v>
+        <v>3.28200406364774e-005</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2575,19 +2581,19 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D100">
-        <v>35.3120002746582</v>
+        <v>33.4280014038086</v>
       </c>
       <c r="E100">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F100">
-        <v>-22.3605196233371</v>
+        <v>-20.5790653719035</v>
       </c>
       <c r="G100">
-        <v>1.85700415191557e-007</v>
+        <v>6.38387008511582e-007</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2598,19 +2604,19 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D101">
-        <v>33.5900001525879</v>
+        <v>24.4389991760254</v>
       </c>
       <c r="E101">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F101">
-        <v>-20.6385195012668</v>
+        <v>-11.5900631441203</v>
       </c>
       <c r="G101">
-        <v>6.12613501432069e-007</v>
+        <v>0.0003243719876035</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2621,19 +2627,19 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D102">
-        <v>31.181999206543</v>
+        <v>30.1270008087158</v>
       </c>
       <c r="E102">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F102">
-        <v>-18.2305185552218</v>
+        <v>-17.2780647768107</v>
       </c>
       <c r="G102">
-        <v>3.25137512184065e-006</v>
+        <v>6.29193511213268e-006</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2644,19 +2650,19 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D103">
-        <v>27.7439994812012</v>
+        <v>25.632999420166</v>
       </c>
       <c r="E103">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F103">
-        <v>-14.79251882988</v>
+        <v>-12.7840633882609</v>
       </c>
       <c r="G103">
-        <v>3.52377460013446e-005</v>
+        <v>0.000141779504318806</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2667,19 +2673,19 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D104">
-        <v>33.4280014038086</v>
+        <v>26.7360000610352</v>
       </c>
       <c r="E104">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F104">
-        <v>-20.4765207524875</v>
+        <v>-13.8870640291301</v>
       </c>
       <c r="G104">
-        <v>6.85414119551306e-007</v>
+        <v>6.60050516941202e-005</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2690,19 +2696,19 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D105">
-        <v>24.4389991760254</v>
+        <v>31.8579998016357</v>
       </c>
       <c r="E105">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F105">
-        <v>-11.4875185247043</v>
+        <v>-19.0090637697307</v>
       </c>
       <c r="G105">
-        <v>0.000348267018792766</v>
+        <v>1.89540322756058e-006</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2713,19 +2719,19 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D106">
-        <v>30.1270008087158</v>
+        <v>27.0650005340576</v>
       </c>
       <c r="E106">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F106">
-        <v>-17.1755201573947</v>
+        <v>-14.2160645021525</v>
       </c>
       <c r="G106">
-        <v>6.75543378492504e-006</v>
+        <v>5.25458188845469e-005</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2733,22 +2739,22 @@
         <v>7</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>25.632999420166</v>
+        <v>31.306999206543</v>
       </c>
       <c r="E107">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F107">
-        <v>-12.6815187688449</v>
+        <v>-18.4580631746379</v>
       </c>
       <c r="G107">
-        <v>0.000152223765251219</v>
+        <v>2.77695807189868e-006</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2756,22 +2762,22 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>26.7360000610352</v>
+        <v>32.1360015869141</v>
       </c>
       <c r="E108">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F108">
-        <v>-13.784519409714</v>
+        <v>-19.287065555009</v>
       </c>
       <c r="G108">
-        <v>7.08673481597694e-005</v>
+        <v>1.56320069551251e-006</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2779,22 +2785,22 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>31.8579998016357</v>
+        <v>33.7620010375977</v>
       </c>
       <c r="E109">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F109">
-        <v>-18.9065191503146</v>
+        <v>-20.9130650056926</v>
       </c>
       <c r="G109">
-        <v>2.03502909221494e-006</v>
+        <v>5.06454147463122e-007</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2802,22 +2808,13 @@
         <v>7</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110">
-        <v>27.0650005340576</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>12.9514806513211</v>
-      </c>
-      <c r="F110">
-        <v>-14.1135198827365</v>
-      </c>
-      <c r="G110">
-        <v>5.64166339644437e-005</v>
+        <v>12.8489360319051</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2825,22 +2822,22 @@
         <v>7</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D111">
-        <v>20.423999786377</v>
+        <v>32.7569999694824</v>
       </c>
       <c r="E111">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F111">
-        <v>-7.47251913505582</v>
+        <v>-19.9080639375773</v>
       </c>
       <c r="G111">
-        <v>0.00563050822438171</v>
+        <v>1.01642561031108e-006</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2851,19 +2848,19 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D112">
-        <v>31.306999206543</v>
+        <v>28.17799949646</v>
       </c>
       <c r="E112">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F112">
-        <v>-18.3555185552218</v>
+        <v>-15.3290634645549</v>
       </c>
       <c r="G112">
-        <v>2.98152413270296e-006</v>
+        <v>2.42936120426281e-005</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2874,19 +2871,19 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113">
-        <v>32.1360015869141</v>
+        <v>32.3680000305176</v>
       </c>
       <c r="E113">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F113">
-        <v>-19.1845209355929</v>
+        <v>-19.5190639986125</v>
       </c>
       <c r="G113">
-        <v>1.67835468784804e-006</v>
+        <v>1.33099446404167e-006</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2897,19 +2894,19 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>33.7620010375977</v>
+        <v>30.882999420166</v>
       </c>
       <c r="E114">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F114">
-        <v>-20.8105203862765</v>
+        <v>-18.0340633882609</v>
       </c>
       <c r="G114">
-        <v>5.43762355668686e-007</v>
+        <v>3.72568365431664e-006</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2920,10 +2917,19 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>27.9650001525879</v>
       </c>
       <c r="E115">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
+      </c>
+      <c r="F115">
+        <v>-15.1160641206828</v>
+      </c>
+      <c r="G115">
+        <v>2.81586145693975e-005</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2934,19 +2940,19 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>32.7569999694824</v>
+        <v>31.6770000457764</v>
       </c>
       <c r="E116">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F116">
-        <v>-19.8055193181613</v>
+        <v>-18.8280640138713</v>
       </c>
       <c r="G116">
-        <v>1.09130113158957e-006</v>
+        <v>2.1487603003421e-006</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -2957,19 +2963,19 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>28.17799949646</v>
+        <v>34.2910003662109</v>
       </c>
       <c r="E117">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F117">
-        <v>-15.2265188451388</v>
+        <v>-21.4420643343059</v>
       </c>
       <c r="G117">
-        <v>2.60832136100979e-005</v>
+        <v>3.50990584471078e-007</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2980,19 +2986,19 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D118">
-        <v>32.3680000305176</v>
+        <v>33.6870002746582</v>
       </c>
       <c r="E118">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F118">
-        <v>-19.4165193791964</v>
+        <v>-20.8380642427531</v>
       </c>
       <c r="G118">
-        <v>1.42904286355356e-006</v>
+        <v>5.33479347554829e-007</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3003,19 +3009,19 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D119">
-        <v>30.882999420166</v>
+        <v>27.9120006561279</v>
       </c>
       <c r="E119">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F119">
-        <v>-17.9315187688449</v>
+        <v>-15.0630646242228</v>
       </c>
       <c r="G119">
-        <v>4.00013807863041e-006</v>
+        <v>2.92122979444669e-005</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3026,19 +3032,19 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D120">
-        <v>27.9650001525879</v>
+        <v>26.3090000152588</v>
       </c>
       <c r="E120">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F120">
-        <v>-15.0135195012668</v>
+        <v>-13.4600639833537</v>
       </c>
       <c r="G120">
-        <v>3.02329335583872e-005</v>
+        <v>8.87395041041114e-005</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3049,19 +3055,19 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D121">
-        <v>31.6770000457764</v>
+        <v>31.9479999542236</v>
       </c>
       <c r="E121">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F121">
-        <v>-18.7255193944552</v>
+        <v>-19.0990639223185</v>
       </c>
       <c r="G121">
-        <v>2.30704984554689e-006</v>
+        <v>1.78077426288168e-006</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3072,19 +3078,19 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D122">
-        <v>34.2910003662109</v>
+        <v>24.1040000915527</v>
       </c>
       <c r="E122">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F122">
-        <v>-21.3395197148898</v>
+        <v>-11.2550640596477</v>
       </c>
       <c r="G122">
-        <v>3.76846488444286e-007</v>
+        <v>0.000409155237572714</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3095,19 +3101,19 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D123">
-        <v>33.6870002746582</v>
+        <v>29.9409999847412</v>
       </c>
       <c r="E123">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F123">
-        <v>-20.7355196233371</v>
+        <v>-17.0920639528361</v>
       </c>
       <c r="G123">
-        <v>5.72778381182337e-007</v>
+        <v>7.15774236503758e-006</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3118,19 +3124,19 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D124">
-        <v>27.9120006561279</v>
+        <v>25.5020008087158</v>
       </c>
       <c r="E124">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F124">
-        <v>-14.9605200048068</v>
+        <v>-12.6530647768107</v>
       </c>
       <c r="G124">
-        <v>3.13642370673557e-005</v>
+        <v>0.000155255847083126</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3141,19 +3147,19 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D125">
-        <v>26.3090000152588</v>
+        <v>26.2919998168945</v>
       </c>
       <c r="E125">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F125">
-        <v>-13.3575193639377</v>
+        <v>-13.4430637849894</v>
       </c>
       <c r="G125">
-        <v>9.52765458318935e-005</v>
+        <v>8.97913636312063e-005</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3164,19 +3170,19 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D126">
-        <v>31.9479999542236</v>
+        <v>32.4119987487793</v>
       </c>
       <c r="E126">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F126">
-        <v>-18.9965193029025</v>
+        <v>-19.5630627168742</v>
       </c>
       <c r="G126">
-        <v>1.91195592522859e-006</v>
+        <v>1.29101507997637e-006</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3187,2678 +3193,2425 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D127">
-        <v>24.1040000915527</v>
+        <v>27.007999420166</v>
       </c>
       <c r="E127">
-        <v>12.9514806513211</v>
+        <v>12.8489360319051</v>
       </c>
       <c r="F127">
-        <v>-11.1525194402316</v>
+        <v>-14.1590633882609</v>
       </c>
       <c r="G127">
-        <v>0.000439295870971065</v>
+        <v>5.46634715953586e-005</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D128">
-        <v>29.9409999847412</v>
+        <v>33.2900009155273</v>
       </c>
       <c r="E128">
-        <v>12.9514806513211</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F128">
-        <v>-16.9895193334201</v>
+        <v>-10.6552121559794</v>
       </c>
       <c r="G128">
-        <v>7.6850211794658e-006</v>
+        <v>0.000620099713776347</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129">
-        <v>25.5020008087158</v>
+        <v>32.1609992980957</v>
       </c>
       <c r="E129">
-        <v>12.9514806513211</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F129">
-        <v>-12.5505201573947</v>
+        <v>-9.52621053854773</v>
       </c>
       <c r="G129">
-        <v>0.000166692849815007</v>
+        <v>0.00135620356884464</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D130">
-        <v>26.2919998168945</v>
+        <v>32.0200004577637</v>
       </c>
       <c r="E130">
-        <v>12.9514806513211</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F130">
-        <v>-13.3405191655734</v>
+        <v>-9.3852116982157</v>
       </c>
       <c r="G130">
-        <v>9.64058911381778e-005</v>
+        <v>0.00149544265214092</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D131">
-        <v>32.4119987487793</v>
+        <v>32.2649993896484</v>
       </c>
       <c r="E131">
-        <v>12.9514806513211</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F131">
-        <v>-19.4605180974582</v>
+        <v>-9.63021063010046</v>
       </c>
       <c r="G131">
-        <v>1.38611837736578e-006</v>
+        <v>0.00126187906632886</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B132">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D132">
-        <v>27.007999420166</v>
+        <v>30.3570003509521</v>
       </c>
       <c r="E132">
-        <v>12.9514806513211</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F132">
-        <v>-14.0565187688449</v>
+        <v>-7.72221159140417</v>
       </c>
       <c r="G132">
-        <v>5.86902846636968e-005</v>
+        <v>0.00473568359429564</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D133">
-        <v>21.003999710083</v>
+        <v>27.1650009155273</v>
       </c>
       <c r="E133">
-        <v>12.9514806513211</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F133">
-        <v>-8.05251905876187</v>
+        <v>-4.53021215597937</v>
       </c>
       <c r="G133">
-        <v>0.00376660624961424</v>
+        <v>0.0432783061053836</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D134">
-        <v>33.2900009155273</v>
+        <v>29.753999710083</v>
       </c>
       <c r="E134">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F134">
-        <v>-10.3638980864991</v>
+        <v>-7.11921095053503</v>
       </c>
       <c r="G134">
-        <v>0.000758849764977187</v>
+        <v>0.00719289893849943</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>32.1609992980957</v>
+        <v>26.3169994354248</v>
       </c>
       <c r="E135">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F135">
-        <v>-9.23489646906744</v>
+        <v>-3.68221067587683</v>
       </c>
       <c r="G135">
-        <v>0.00165966011048695</v>
+        <v>0.0779011979471286</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>32.0200004577637</v>
+        <v>27.4909992218018</v>
       </c>
       <c r="E136">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F136">
-        <v>-9.09389762873541</v>
+        <v>-4.85621046225378</v>
       </c>
       <c r="G136">
-        <v>0.00183005455397339</v>
+        <v>0.0345251032150539</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D137">
-        <v>32.2649993896484</v>
+        <v>29.757999420166</v>
       </c>
       <c r="E137">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F137">
-        <v>-9.33889656062017</v>
+        <v>-7.12321066061804</v>
       </c>
       <c r="G137">
-        <v>0.00154423008370983</v>
+        <v>0.00717298505073687</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D138">
-        <v>30.3570003509521</v>
+        <v>30.761999130249</v>
       </c>
       <c r="E138">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F138">
-        <v>-7.43089752192389</v>
+        <v>-8.12721037070105</v>
       </c>
       <c r="G138">
-        <v>0.00579531372567881</v>
+        <v>0.00357656314776671</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D139">
-        <v>27.1650009155273</v>
+        <v>31.1189994812012</v>
       </c>
       <c r="E139">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F139">
-        <v>-4.23889808649908</v>
+        <v>-8.4842107216532</v>
       </c>
       <c r="G139">
-        <v>0.0529620183448855</v>
+        <v>0.00279253151641815</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D140">
-        <v>29.753999710083</v>
+        <v>28.2950000762939</v>
       </c>
       <c r="E140">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F140">
-        <v>-6.82789688105474</v>
+        <v>-5.66021131674597</v>
       </c>
       <c r="G140">
-        <v>0.00880234186167295</v>
+        <v>0.0197745501189723</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D141">
-        <v>26.3169994354248</v>
+        <v>27.4640007019043</v>
       </c>
       <c r="E141">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F141">
-        <v>-3.39089660639654</v>
+        <v>-4.82921194235632</v>
       </c>
       <c r="G141">
-        <v>0.0953319352360501</v>
+        <v>0.0351772876386875</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D142">
-        <v>27.4909992218018</v>
+        <v>32.8079986572266</v>
       </c>
       <c r="E142">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F142">
-        <v>-4.56489639277349</v>
+        <v>-10.1732098976786</v>
       </c>
       <c r="G142">
-        <v>0.0422502476271197</v>
+        <v>0.000866081313926777</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D143">
-        <v>29.757999420166</v>
+        <v>24.9309997558594</v>
       </c>
       <c r="E143">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F143">
-        <v>-6.83189659113775</v>
+        <v>-2.2962109963114</v>
       </c>
       <c r="G143">
-        <v>0.00877797215352332</v>
+        <v>0.203597112207307</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D144">
-        <v>30.761999130249</v>
+        <v>27.2439994812012</v>
       </c>
       <c r="E144">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F144">
-        <v>-7.83589630122076</v>
+        <v>-4.6092107216532</v>
       </c>
       <c r="G144">
-        <v>0.00437683495704326</v>
+        <v>0.0409722030613106</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D145">
-        <v>31.1189994812012</v>
+        <v>25.5729999542236</v>
       </c>
       <c r="E145">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F145">
-        <v>-8.19289665217291</v>
+        <v>-2.93821119467566</v>
       </c>
       <c r="G145">
-        <v>0.00341737278351592</v>
+        <v>0.130469890173712</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D146">
-        <v>28.2950000762939</v>
+        <v>26.25</v>
       </c>
       <c r="E146">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F146">
-        <v>-5.36889724726568</v>
+        <v>-3.61521124045202</v>
       </c>
       <c r="G146">
-        <v>0.0241991930925547</v>
+        <v>0.0816042872594555</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D147">
-        <v>27.4640007019043</v>
+        <v>31.4389991760254</v>
       </c>
       <c r="E147">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F147">
-        <v>-4.53789787287603</v>
+        <v>-8.80421041647741</v>
       </c>
       <c r="G147">
-        <v>0.0430483611975683</v>
+        <v>0.00223701335322151</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D148">
-        <v>32.8079986572266</v>
+        <v>27.4769992828369</v>
       </c>
       <c r="E148">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F148">
-        <v>-9.8818958281983</v>
+        <v>-4.84221052328894</v>
       </c>
       <c r="G148">
-        <v>0.00105987083516299</v>
+        <v>0.0348617662961861</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D149">
-        <v>24.9309997558594</v>
+        <v>30.496000289917</v>
       </c>
       <c r="E149">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F149">
-        <v>-2.00489692683111</v>
+        <v>-7.86121153036902</v>
       </c>
       <c r="G149">
-        <v>0.249152865766799</v>
+        <v>0.00430070374493635</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>27.2439994812012</v>
+        <v>29.5209999084473</v>
       </c>
       <c r="E150">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F150">
-        <v>-4.31789665217291</v>
+        <v>-6.88621114889929</v>
       </c>
       <c r="G150">
-        <v>0.0501399145539472</v>
+        <v>0.00845364269279511</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D151">
-        <v>25.5729999542236</v>
+        <v>27.94700050354</v>
       </c>
       <c r="E151">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F151">
-        <v>-2.64689712519537</v>
+        <v>-5.31221174399206</v>
       </c>
       <c r="G151">
-        <v>0.15966310465131</v>
+        <v>0.0251689397851459</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>26.25</v>
+        <v>28.9790000915527</v>
       </c>
       <c r="E152">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F152">
-        <v>-3.32389717097174</v>
+        <v>-6.34421133200476</v>
       </c>
       <c r="G152">
-        <v>0.0998636071460976</v>
+        <v>0.01230841384951</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D153">
-        <v>31.4389991760254</v>
+        <v>28.5440006256104</v>
       </c>
       <c r="E153">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F153">
-        <v>-8.51289634699713</v>
+        <v>-5.90921186606237</v>
       </c>
       <c r="G153">
-        <v>0.00273755497644889</v>
+        <v>0.0166398718607882</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D154">
-        <v>27.4769992828369</v>
+        <v>24.5179996490479</v>
       </c>
       <c r="E154">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F154">
-        <v>-4.55089645380865</v>
+        <v>-1.88321088949987</v>
       </c>
       <c r="G154">
-        <v>0.0426622405603819</v>
+        <v>0.271079723568371</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D155">
-        <v>21.8169994354248</v>
+        <v>27.2700004577637</v>
       </c>
       <c r="E155">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F155">
-        <v>1.10910339360346</v>
+        <v>-4.6352116982157</v>
       </c>
       <c r="G155">
-        <v>2.15711545180953</v>
+        <v>0.04024039569289</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D156">
-        <v>30.496000289917</v>
+        <v>24.4740009307861</v>
       </c>
       <c r="E156">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F156">
-        <v>-7.56989746088873</v>
+        <v>-1.83921217123816</v>
       </c>
       <c r="G156">
-        <v>0.00526300521283348</v>
+        <v>0.279474358572209</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D157">
-        <v>29.5209999084473</v>
+        <v>23.5149993896484</v>
       </c>
       <c r="E157">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F157">
-        <v>-6.594897079419</v>
+        <v>-0.880210630100461</v>
       </c>
       <c r="G157">
-        <v>0.0103451826022652</v>
+        <v>0.543288106680137</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D158">
-        <v>27.94700050354</v>
+        <v>27.2759990692139</v>
       </c>
       <c r="E158">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F158">
-        <v>-5.02089767451178</v>
+        <v>-4.64121030966589</v>
       </c>
       <c r="G158">
-        <v>0.0308006012845405</v>
+        <v>0.0400734266846154</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>28.9790000915527</v>
+        <v>30.6989994049072</v>
       </c>
       <c r="E159">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F159">
-        <v>-6.05289726252447</v>
+        <v>-8.06421064535925</v>
       </c>
       <c r="G159">
-        <v>0.0150624758396702</v>
+        <v>0.00373620506100597</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D160">
-        <v>28.5440006256104</v>
+        <v>29.7859992980957</v>
       </c>
       <c r="E160">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F160">
-        <v>-5.61789779658209</v>
+        <v>-7.15121053854773</v>
       </c>
       <c r="G160">
-        <v>0.0203631167218438</v>
+        <v>0.00703511372894637</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D161">
-        <v>24.5179996490479</v>
+        <v>27.511999130249</v>
       </c>
       <c r="E161">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F161">
-        <v>-1.59189682001959</v>
+        <v>-4.87721037070105</v>
       </c>
       <c r="G161">
-        <v>0.331735009628037</v>
+        <v>0.0340261947406456</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D162">
-        <v>27.2700004577637</v>
+        <v>27.738000869751</v>
       </c>
       <c r="E162">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F162">
-        <v>-4.34389762873541</v>
+        <v>-5.103212110203</v>
       </c>
       <c r="G162">
-        <v>0.0492443620529588</v>
+        <v>0.0290924355309595</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D163">
-        <v>24.4740009307861</v>
+        <v>34.1920013427734</v>
       </c>
       <c r="E163">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F163">
-        <v>-1.54789810175787</v>
+        <v>-11.5572125832255</v>
       </c>
       <c r="G163">
-        <v>0.342007981310184</v>
+        <v>0.000331842759502806</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D164">
-        <v>23.5149993896484</v>
+        <v>23.0930004119873</v>
       </c>
       <c r="E164">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F164">
-        <v>-0.588896560620174</v>
+        <v>-0.458211652439328</v>
       </c>
       <c r="G164">
-        <v>0.664851221359891</v>
+        <v>0.727887980919724</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D165">
-        <v>27.2759990692139</v>
+        <v>26.2840003967285</v>
       </c>
       <c r="E165">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F165">
-        <v>-4.3498962401856</v>
+        <v>-3.64921163718054</v>
       </c>
       <c r="G165">
-        <v>0.0490400329912407</v>
+        <v>0.0797035814484032</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D166">
-        <v>30.6989994049072</v>
+        <v>24.8689994812012</v>
       </c>
       <c r="E166">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F166">
-        <v>-7.77289657587896</v>
+        <v>-2.2342107216532</v>
       </c>
       <c r="G166">
-        <v>0.00457219745383327</v>
+        <v>0.212537494284403</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B167">
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D167">
-        <v>29.7859992980957</v>
+        <v>25.7369995117188</v>
       </c>
       <c r="E167">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F167">
-        <v>-6.85989646906744</v>
+        <v>-3.10221075217077</v>
       </c>
       <c r="G167">
-        <v>0.00860925151422376</v>
+        <v>0.116450541060781</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D168">
-        <v>27.511999130249</v>
+        <v>30.5949993133545</v>
       </c>
       <c r="E168">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F168">
-        <v>-4.58589630122076</v>
+        <v>-7.96021055380652</v>
       </c>
       <c r="G168">
-        <v>0.0416397061768678</v>
+        <v>0.00401548355375535</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D169">
-        <v>27.738000869751</v>
+        <v>26.42799949646</v>
       </c>
       <c r="E169">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F169">
-        <v>-4.81189804072271</v>
+        <v>-3.79321073691198</v>
       </c>
       <c r="G169">
-        <v>0.0356019965415515</v>
+        <v>0.0721323013376033</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D170">
-        <v>34.1920013427734</v>
+        <v>31.0440006256104</v>
       </c>
       <c r="E170">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F170">
-        <v>-11.2658985137452</v>
+        <v>-8.40921186606237</v>
       </c>
       <c r="G170">
-        <v>0.000406094043366886</v>
+        <v>0.00294154155770965</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>23.0930004119873</v>
+        <v>28.7110004425049</v>
       </c>
       <c r="E171">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F171">
-        <v>-0.166897582959042</v>
+        <v>-6.07621168295691</v>
       </c>
       <c r="G171">
-        <v>0.890756133214202</v>
+        <v>0.0148210176144782</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D172">
-        <v>26.2840003967285</v>
+        <v>28.6770000457764</v>
       </c>
       <c r="E172">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F172">
-        <v>-3.35789756770025</v>
+        <v>-6.04221128622839</v>
       </c>
       <c r="G172">
-        <v>0.0975376100105336</v>
+        <v>0.0151744571186212</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D173">
-        <v>24.8689994812012</v>
+        <v>28.3369998931885</v>
       </c>
       <c r="E173">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F173">
-        <v>-1.94289665217291</v>
+        <v>-5.7022111336405</v>
       </c>
       <c r="G173">
-        <v>0.260093697841522</v>
+        <v>0.019207171189277</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D174">
-        <v>25.7369995117188</v>
+        <v>31.6639995574951</v>
       </c>
       <c r="E174">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F174">
-        <v>-2.81089668269049</v>
+        <v>-9.02921079794714</v>
       </c>
       <c r="G174">
-        <v>0.142506864222343</v>
+        <v>0.00191397699131823</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D175">
-        <v>30.5949993133545</v>
+        <v>27.7450008392334</v>
       </c>
       <c r="E175">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F175">
-        <v>-7.66889648432623</v>
+        <v>-5.11021207968542</v>
       </c>
       <c r="G175">
-        <v>0.00491396574347724</v>
+        <v>0.028951620662477</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D176">
-        <v>26.42799949646</v>
+        <v>27.9409999847412</v>
       </c>
       <c r="E176">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F176">
-        <v>-3.5018966674317</v>
+        <v>-5.30621122519323</v>
       </c>
       <c r="G176">
-        <v>0.0882722225171777</v>
+        <v>0.0252738415185511</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D177">
-        <v>20.9559993743896</v>
+        <v>27.5270004272461</v>
       </c>
       <c r="E177">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F177">
-        <v>1.97010345463861</v>
+        <v>-4.89221166769812</v>
       </c>
       <c r="G177">
-        <v>3.91796213456155</v>
+        <v>0.0336742198440906</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D178">
-        <v>31.0440006256104</v>
+        <v>27.9150009155273</v>
       </c>
       <c r="E178">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F178">
-        <v>-8.11789779658209</v>
+        <v>-5.28021215597937</v>
       </c>
       <c r="G178">
-        <v>0.00359972448002723</v>
+        <v>0.0257334347728939</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179">
-        <v>28.7110004425049</v>
+        <v>28.6840000152588</v>
       </c>
       <c r="E179">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F179">
-        <v>-5.78489761347662</v>
+        <v>-6.04921125571081</v>
       </c>
       <c r="G179">
-        <v>0.0181372858003382</v>
+        <v>0.0151010088443721</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B180">
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D180">
-        <v>28.6770000457764</v>
+        <v>31.5069999694824</v>
       </c>
       <c r="E180">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F180">
-        <v>-5.7508972167481</v>
+        <v>-8.87221120993445</v>
       </c>
       <c r="G180">
-        <v>0.0185698089553954</v>
+        <v>0.0021340190793346</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B181">
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D181">
-        <v>28.3369998931885</v>
+        <v>34.6510009765625</v>
       </c>
       <c r="E181">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F181">
-        <v>-5.41089706416021</v>
+        <v>-12.0162122170145</v>
       </c>
       <c r="G181">
-        <v>0.0235048606200719</v>
+        <v>0.000241412463819987</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D182">
-        <v>31.6639995574951</v>
+        <v>27.6760005950928</v>
       </c>
       <c r="E182">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F182">
-        <v>-8.73789672846685</v>
+        <v>-5.0412118355448</v>
       </c>
       <c r="G182">
-        <v>0.00234223780106022</v>
+        <v>0.0303699462303021</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B183">
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D183">
-        <v>27.7450008392334</v>
+        <v>27.882999420166</v>
       </c>
       <c r="E183">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F183">
-        <v>-4.81889801020514</v>
+        <v>-5.24821066061804</v>
       </c>
       <c r="G183">
-        <v>0.0354296737239799</v>
+        <v>0.0263106251734895</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B184">
         <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D184">
-        <v>27.9409999847412</v>
+        <v>35.2050018310547</v>
       </c>
       <c r="E184">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F184">
-        <v>-5.01489715571295</v>
+        <v>-12.5702130715067</v>
       </c>
       <c r="G184">
-        <v>0.0309289752443597</v>
+        <v>0.000164432936858743</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B185">
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D185">
-        <v>27.5270004272461</v>
+        <v>24.8799991607666</v>
       </c>
       <c r="E185">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F185">
-        <v>-4.60089759821783</v>
+        <v>-2.24521040121862</v>
       </c>
       <c r="G185">
-        <v>0.0412089753418187</v>
+        <v>0.210923185960393</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B186">
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D186">
-        <v>27.9150009155273</v>
+        <v>28.4080009460449</v>
       </c>
       <c r="E186">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F186">
-        <v>-4.98889808649908</v>
+        <v>-5.77321218649695</v>
       </c>
       <c r="G186">
-        <v>0.0314914045203212</v>
+        <v>0.0182847893129617</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D187">
-        <v>28.6840000152588</v>
+        <v>25.3680000305176</v>
       </c>
       <c r="E187">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F187">
-        <v>-5.75789718623053</v>
+        <v>-2.7332112709696</v>
       </c>
       <c r="G187">
-        <v>0.0184799263052124</v>
+        <v>0.150390853118475</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B188">
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D188">
-        <v>31.5069999694824</v>
+        <v>26.6240005493164</v>
       </c>
       <c r="E188">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F188">
-        <v>-8.58089714045416</v>
+        <v>-3.98921178976843</v>
       </c>
       <c r="G188">
-        <v>0.00261151527864431</v>
+        <v>0.0629691153877226</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D189">
-        <v>34.6510009765625</v>
+        <v>32.7599983215332</v>
       </c>
       <c r="E189">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F189">
-        <v>-11.7248981475342</v>
+        <v>-10.1252095619852</v>
       </c>
       <c r="G189">
-        <v>0.000295429569410242</v>
+        <v>0.000895381690769304</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D190">
-        <v>27.6760005950928</v>
+        <v>27.1389999389648</v>
       </c>
       <c r="E190">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F190">
-        <v>-4.74989776606451</v>
+        <v>-4.50421117941687</v>
       </c>
       <c r="G190">
-        <v>0.0371653559052386</v>
+        <v>0.0440653605752849</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D191">
-        <v>27.882999420166</v>
+        <v>32.8400001525879</v>
       </c>
       <c r="E191">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F191">
-        <v>-4.95689659113775</v>
+        <v>-10.2052113930399</v>
       </c>
       <c r="G191">
-        <v>0.0321977438236756</v>
+        <v>0.000847081620181856</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D192">
-        <v>35.2050018310547</v>
+        <v>30.7770004272461</v>
       </c>
       <c r="E192">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F192">
-        <v>-12.2788990020264</v>
+        <v>-8.14221166769812</v>
       </c>
       <c r="G192">
-        <v>0.000201225533116066</v>
+        <v>0.00353956634417016</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D193">
-        <v>24.8799991607666</v>
+        <v>31.556999206543</v>
       </c>
       <c r="E193">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F193">
-        <v>-1.95389633173834</v>
+        <v>-8.92221044699499</v>
       </c>
       <c r="G193">
-        <v>0.258118180896327</v>
+        <v>0.00206132764543827</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <v>28.4080009460449</v>
+        <v>31.9109992980957</v>
       </c>
       <c r="E194">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F194">
-        <v>-5.48189811701666</v>
+        <v>-9.27621053854773</v>
       </c>
       <c r="G194">
-        <v>0.0223760917228916</v>
+        <v>0.00161280693346213</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D195">
-        <v>25.3680000305176</v>
+        <v>30.4500007629395</v>
       </c>
       <c r="E195">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F195">
-        <v>-2.44189720148931</v>
+        <v>-7.81521200339148</v>
       </c>
       <c r="G195">
-        <v>0.184041471086431</v>
+        <v>0.00444003879204524</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D196">
-        <v>26.6240005493164</v>
+        <v>27.7759990692139</v>
       </c>
       <c r="E196">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F196">
-        <v>-3.69789772028814</v>
+        <v>-5.14121030966589</v>
       </c>
       <c r="G196">
-        <v>0.0770587332185563</v>
+        <v>0.0283361917540735</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D197">
-        <v>32.7599983215332</v>
+        <v>30.7199993133545</v>
       </c>
       <c r="E197">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F197">
-        <v>-9.83389549250494</v>
+        <v>-8.08521055380652</v>
       </c>
       <c r="G197">
-        <v>0.00109572730080347</v>
+        <v>0.00368221465421552</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D198">
-        <v>27.1389999389648</v>
+        <v>27.193000793457</v>
       </c>
       <c r="E198">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F198">
-        <v>-4.21289710993658</v>
+        <v>-4.55821203390905</v>
       </c>
       <c r="G198">
-        <v>0.0539251797304498</v>
+        <v>0.0424464575478587</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D199">
-        <v>21.7049999237061</v>
+        <v>28.1259994506836</v>
       </c>
       <c r="E199">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F199">
-        <v>1.22110290532221</v>
+        <v>-5.49121069113562</v>
       </c>
       <c r="G199">
-        <v>2.3312486748891</v>
+        <v>0.0222321195666999</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B200">
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D200">
-        <v>32.8400001525879</v>
+        <v>29.6809997558594</v>
       </c>
       <c r="E200">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F200">
-        <v>-9.91389732355963</v>
+        <v>-7.0462109963114</v>
       </c>
       <c r="G200">
-        <v>0.0010366198759823</v>
+        <v>0.00756622295096676</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B201">
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D201">
-        <v>30.7770004272461</v>
+        <v>31.9829998016357</v>
       </c>
       <c r="E201">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F201">
-        <v>-7.85089759821783</v>
+        <v>-9.34821104208777</v>
       </c>
       <c r="G201">
-        <v>0.00433155995515176</v>
+        <v>0.00153429217648713</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B202">
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D202">
-        <v>31.556999206543</v>
+        <v>32.1319999694824</v>
       </c>
       <c r="E202">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F202">
-        <v>-8.63089637751471</v>
+        <v>-9.49721120993445</v>
       </c>
       <c r="G202">
-        <v>0.00252255881518757</v>
+        <v>0.00138374017623052</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B203">
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D203">
-        <v>31.9109992980957</v>
+        <v>28.2700004577637</v>
       </c>
       <c r="E203">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F203">
-        <v>-8.98489646906744</v>
+        <v>-5.6352116982157</v>
       </c>
       <c r="G203">
-        <v>0.00197367961187728</v>
+        <v>0.020120197846445</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B204">
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D204">
-        <v>30.4500007629395</v>
+        <v>27.2689990997314</v>
       </c>
       <c r="E204">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F204">
-        <v>-7.52389793391119</v>
+        <v>-4.63421034018347</v>
       </c>
       <c r="G204">
-        <v>0.00543351709245967</v>
+        <v>0.040268335783972</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B205">
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D205">
-        <v>27.7759990692139</v>
+        <v>31.7740001678467</v>
       </c>
       <c r="E205">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F205">
-        <v>-4.8498962401856</v>
+        <v>-9.1392114082987</v>
       </c>
       <c r="G205">
-        <v>0.0346765398777183</v>
+        <v>0.00177346748059887</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B206">
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D206">
-        <v>30.7199993133545</v>
+        <v>24.3819999694824</v>
       </c>
       <c r="E206">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F206">
-        <v>-7.79389648432623</v>
+        <v>-1.74721120993445</v>
       </c>
       <c r="G206">
-        <v>0.00450612645493787</v>
+        <v>0.297877031381705</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B207">
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D207">
-        <v>27.193000793457</v>
+        <v>26.992000579834</v>
       </c>
       <c r="E207">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F207">
-        <v>-4.26689796442877</v>
+        <v>-4.35721182028601</v>
       </c>
       <c r="G207">
-        <v>0.0519440399966451</v>
+        <v>0.0487919914933238</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B208">
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D208">
-        <v>28.1259994506836</v>
+        <v>24.7029991149902</v>
       </c>
       <c r="E208">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F208">
-        <v>-5.19989662165533</v>
+        <v>-2.06821035544226</v>
       </c>
       <c r="G208">
-        <v>0.0272066545643009</v>
+        <v>0.238455116609652</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B209">
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D209">
-        <v>29.6809997558594</v>
+        <v>25.9549999237061</v>
       </c>
       <c r="E209">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F209">
-        <v>-6.75489692683111</v>
+        <v>-3.32021116415808</v>
       </c>
       <c r="G209">
-        <v>0.00925919877166234</v>
+        <v>0.10011907941272</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B210">
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D210">
-        <v>31.9829998016357</v>
+        <v>30.613000869751</v>
       </c>
       <c r="E210">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F210">
-        <v>-9.05689697260748</v>
+        <v>-7.978212110203</v>
       </c>
       <c r="G210">
-        <v>0.00187759683106953</v>
+        <v>0.0039656907385721</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B211">
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D211">
-        <v>32.1319999694824</v>
+        <v>27.5020008087158</v>
       </c>
       <c r="E211">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F211">
-        <v>-9.20589714045416</v>
+        <v>-4.86721204916784</v>
       </c>
       <c r="G211">
-        <v>0.0016933581554607</v>
+        <v>0.0342628257791687</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D212">
-        <v>28.2700004577637</v>
+        <v>33.9039993286133</v>
       </c>
       <c r="E212">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F212">
-        <v>-5.34389762873541</v>
+        <v>-11.2692105690653</v>
       </c>
       <c r="G212">
-        <v>0.0246221810264794</v>
+        <v>0.000405162825620702</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D213">
-        <v>27.2689990997314</v>
+        <v>32.2330017089844</v>
       </c>
       <c r="E213">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F213">
-        <v>-4.34289627070318</v>
+        <v>-9.5982129494364</v>
       </c>
       <c r="G213">
-        <v>0.0492785538628888</v>
+        <v>0.00129017908544736</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D214">
-        <v>31.7740001678467</v>
+        <v>32.3240013122559</v>
       </c>
       <c r="E214">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F214">
-        <v>-8.84789733881842</v>
+        <v>-9.68921255270788</v>
       </c>
       <c r="G214">
-        <v>0.00217028866640071</v>
+        <v>0.00121131302540426</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D215">
-        <v>24.3819999694824</v>
+        <v>32.2099990844727</v>
       </c>
       <c r="E215">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F215">
-        <v>-1.45589714045416</v>
+        <v>-9.57521032492468</v>
       </c>
       <c r="G215">
-        <v>0.364528333482891</v>
+        <v>0.00131091483261655</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D216">
-        <v>26.992000579834</v>
+        <v>31.5729999542236</v>
       </c>
       <c r="E216">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F216">
-        <v>-4.06589775080572</v>
+        <v>-8.93821119467566</v>
       </c>
       <c r="G216">
-        <v>0.0597094152035553</v>
+        <v>0.00203859203396424</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D217">
-        <v>24.7029991149902</v>
+        <v>28.1019992828369</v>
       </c>
       <c r="E217">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F217">
-        <v>-1.77689628596197</v>
+        <v>-5.46721052328894</v>
       </c>
       <c r="G217">
-        <v>0.29181050269297</v>
+        <v>0.0226050587389468</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D218">
-        <v>25.9549999237061</v>
+        <v>30.6189994812012</v>
       </c>
       <c r="E218">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F218">
-        <v>-3.02889709467779</v>
+        <v>-7.9842107216532</v>
       </c>
       <c r="G218">
-        <v>0.122521165861201</v>
+        <v>0.00394923594387285</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D219">
-        <v>30.613000869751</v>
+        <v>26.996000289917</v>
       </c>
       <c r="E219">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F219">
-        <v>-7.68689804072271</v>
+        <v>-4.36121153036902</v>
       </c>
       <c r="G219">
-        <v>0.00485303156586045</v>
+        <v>0.048656908510702</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D220">
-        <v>27.5020008087158</v>
+        <v>30.6000003814697</v>
       </c>
       <c r="E220">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F220">
-        <v>-4.57589797968756</v>
+        <v>-7.96521162192175</v>
       </c>
       <c r="G220">
-        <v>0.0419292844559417</v>
+        <v>0.00400158807341924</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D221">
-        <v>21.7040004730225</v>
+        <v>29.4559993743896</v>
       </c>
       <c r="E221">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F221">
-        <v>1.2221023560058</v>
+        <v>-6.82121061484167</v>
       </c>
       <c r="G221">
-        <v>2.33286424523759</v>
+        <v>0.00884323158091169</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B222">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D222">
-        <v>33.9039993286133</v>
+        <v>31.5739994049072</v>
       </c>
       <c r="E222">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F222">
-        <v>-10.977896499585</v>
+        <v>-8.93921064535925</v>
       </c>
       <c r="G222">
-        <v>0.000495819798282723</v>
+        <v>0.00203718025492504</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B223">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D223">
-        <v>32.2330017089844</v>
+        <v>32.3279991149902</v>
       </c>
       <c r="E223">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F223">
-        <v>-9.30689887995611</v>
+        <v>-9.69321035544226</v>
       </c>
       <c r="G223">
-        <v>0.00157886235716492</v>
+        <v>0.00120796104386061</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B224">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D224">
-        <v>32.3240013122559</v>
+        <v>29.9780006408691</v>
       </c>
       <c r="E224">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F224">
-        <v>-9.3978984832276</v>
+        <v>-7.34321188132116</v>
       </c>
       <c r="G224">
-        <v>0.00148234966767515</v>
+        <v>0.00615847182979632</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B225">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D225">
-        <v>32.2099990844727</v>
+        <v>29.5470008850098</v>
       </c>
       <c r="E225">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F225">
-        <v>-9.28389625544439</v>
+        <v>-6.91221212546179</v>
       </c>
       <c r="G225">
-        <v>0.00160423781939524</v>
+        <v>0.00830265159272353</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B226">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D226">
-        <v>31.5729999542236</v>
+        <v>34.0279998779297</v>
       </c>
       <c r="E226">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F226">
-        <v>-8.64689712519537</v>
+        <v>-11.3932111183817</v>
       </c>
       <c r="G226">
-        <v>0.00249473601017672</v>
+        <v>0.0003717934260565</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B227">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D227">
-        <v>28.1019992828369</v>
+        <v>27.1089992523193</v>
       </c>
       <c r="E227">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F227">
-        <v>-5.17589645380865</v>
+        <v>-4.47421049277136</v>
       </c>
       <c r="G227">
-        <v>0.0276630405243699</v>
+        <v>0.0449912888844624</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B228">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D228">
-        <v>30.6189994812012</v>
+        <v>28.9549999237061</v>
       </c>
       <c r="E228">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F228">
-        <v>-7.69289665217291</v>
+        <v>-6.32021116415808</v>
       </c>
       <c r="G228">
-        <v>0.00483289493813291</v>
+        <v>0.0125148849265901</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B229">
         <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D229">
-        <v>26.996000289917</v>
+        <v>27.1000003814697</v>
       </c>
       <c r="E229">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F229">
-        <v>-4.06989746088873</v>
+        <v>-4.46521162192175</v>
       </c>
       <c r="G229">
-        <v>0.0595441068066352</v>
+        <v>0.0452728009956793</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B230">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D230">
-        <v>30.6000003814697</v>
+        <v>28.0909996032715</v>
       </c>
       <c r="E230">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F230">
-        <v>-7.67389755244146</v>
+        <v>-5.45621084372351</v>
       </c>
       <c r="G230">
-        <v>0.00489696108801128</v>
+        <v>0.0227780673834013</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B231">
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
-      </c>
-      <c r="D231">
-        <v>29.4559993743896</v>
+        <v>27</v>
       </c>
       <c r="E231">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F231">
-        <v>-6.52989654536139</v>
-      </c>
-      <c r="G231">
-        <v>0.0108219437257054</v>
+        <v>22.634788759548</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B232">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D232">
-        <v>31.5739994049072</v>
+        <v>30.0590000152588</v>
       </c>
       <c r="E232">
-        <v>22.9261028290283</v>
+        <v>22.634788759548</v>
       </c>
       <c r="F232">
-        <v>-8.64789657587896</v>
+        <v>-7.42421125571081</v>
       </c>
       <c r="G232">
-        <v>0.00249300833933879</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" t="s">
-        <v>30</v>
-      </c>
-      <c r="B233">
-        <v>5</v>
-      </c>
-      <c r="C233" t="s">
-        <v>19</v>
-      </c>
-      <c r="D233">
-        <v>32.3279991149902</v>
-      </c>
-      <c r="E233">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F233">
-        <v>-9.40189628596197</v>
-      </c>
-      <c r="G233">
-        <v>0.00147824766544859</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" t="s">
-        <v>30</v>
-      </c>
-      <c r="B234">
-        <v>5</v>
-      </c>
-      <c r="C234" t="s">
-        <v>20</v>
-      </c>
-      <c r="D234">
-        <v>29.9780006408691</v>
-      </c>
-      <c r="E234">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F234">
-        <v>-7.05189781184088</v>
-      </c>
-      <c r="G234">
-        <v>0.00753645711622618</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" t="s">
-        <v>30</v>
-      </c>
-      <c r="B235">
-        <v>5</v>
-      </c>
-      <c r="C235" t="s">
-        <v>21</v>
-      </c>
-      <c r="D235">
-        <v>29.5470008850098</v>
-      </c>
-      <c r="E235">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F235">
-        <v>-6.6208980559815</v>
-      </c>
-      <c r="G235">
-        <v>0.0101604065763174</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" t="s">
-        <v>30</v>
-      </c>
-      <c r="B236">
-        <v>5</v>
-      </c>
-      <c r="C236" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236">
-        <v>34.0279998779297</v>
-      </c>
-      <c r="E236">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F236">
-        <v>-11.1018970489014</v>
-      </c>
-      <c r="G236">
-        <v>0.000454983848105431</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" t="s">
-        <v>30</v>
-      </c>
-      <c r="B237">
-        <v>5</v>
-      </c>
-      <c r="C237" t="s">
-        <v>23</v>
-      </c>
-      <c r="D237">
-        <v>27.1089992523193</v>
-      </c>
-      <c r="E237">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F237">
-        <v>-4.18289642329107</v>
-      </c>
-      <c r="G237">
-        <v>0.0550582885905169</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" t="s">
-        <v>30</v>
-      </c>
-      <c r="B238">
-        <v>5</v>
-      </c>
-      <c r="C238" t="s">
-        <v>24</v>
-      </c>
-      <c r="D238">
-        <v>28.9549999237061</v>
-      </c>
-      <c r="E238">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F238">
-        <v>-6.02889709467779</v>
-      </c>
-      <c r="G238">
-        <v>0.0153151457326502</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" t="s">
-        <v>30</v>
-      </c>
-      <c r="B239">
-        <v>5</v>
-      </c>
-      <c r="C239" t="s">
-        <v>25</v>
-      </c>
-      <c r="D239">
-        <v>27.1000003814697</v>
-      </c>
-      <c r="E239">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F239">
-        <v>-4.17389755244146</v>
-      </c>
-      <c r="G239">
-        <v>0.0554027902806309</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" t="s">
-        <v>30</v>
-      </c>
-      <c r="B240">
-        <v>5</v>
-      </c>
-      <c r="C240" t="s">
-        <v>26</v>
-      </c>
-      <c r="D240">
-        <v>28.0909996032715</v>
-      </c>
-      <c r="E240">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F240">
-        <v>-5.16489677424322</v>
-      </c>
-      <c r="G240">
-        <v>0.0278747606175526</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" t="s">
-        <v>30</v>
-      </c>
-      <c r="B241">
-        <v>5</v>
-      </c>
-      <c r="C241" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241">
-        <v>22.9261028290283</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" t="s">
-        <v>30</v>
-      </c>
-      <c r="B242">
-        <v>5</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242">
-        <v>30.0590000152588</v>
-      </c>
-      <c r="E242">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F242">
-        <v>-7.13289718623053</v>
-      </c>
-      <c r="G242">
-        <v>0.00712498560015989</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" t="s">
-        <v>30</v>
-      </c>
-      <c r="B243">
-        <v>5</v>
-      </c>
-      <c r="C243" t="s">
-        <v>29</v>
-      </c>
-      <c r="D243">
-        <v>24.2740001678467</v>
-      </c>
-      <c r="E243">
-        <v>22.9261028290283</v>
-      </c>
-      <c r="F243">
-        <v>-1.34789733881842</v>
-      </c>
-      <c r="G243">
-        <v>0.392864213284929</v>
+        <v>0.00582223482859293</v>
       </c>
     </row>
   </sheetData>
@@ -5868,7 +5621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5879,28 +5632,28 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5914,22 +5667,22 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>1.35963142726332e-005</v>
+        <v>1.51062425517183e-005</v>
       </c>
       <c r="F2">
-        <v>0.00012</v>
+        <v>0.00014</v>
       </c>
       <c r="G2">
-        <v>1.4e-005</v>
+        <v>1.5e-005</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5943,22 +5696,22 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>2.42563528352567e-006</v>
+        <v>2.74788994419011e-006</v>
       </c>
       <c r="F3">
-        <v>3.9e-005</v>
+        <v>4.1e-005</v>
       </c>
       <c r="G3">
-        <v>2.4e-006</v>
+        <v>2.7e-006</v>
       </c>
       <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5972,22 +5725,22 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>0.00051833903873844</v>
+        <v>0.000552331775493495</v>
       </c>
       <c r="F4">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="G4">
-        <v>0.00052</v>
+        <v>0.00055</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6001,22 +5754,22 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>0.00204011750791426</v>
+        <v>0.00216235567198744</v>
       </c>
       <c r="F5">
-        <v>0.0041</v>
+        <v>0.0043</v>
       </c>
       <c r="G5">
-        <v>0.00204</v>
+        <v>0.00216</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6030,22 +5783,22 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>2.13427516446518e-005</v>
+        <v>2.38101352904712e-005</v>
       </c>
       <c r="F6">
-        <v>0.00015</v>
+        <v>0.00017</v>
       </c>
       <c r="G6">
-        <v>2.1e-005</v>
+        <v>2.4e-005</v>
       </c>
       <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6059,22 +5812,22 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>0.140214233037112</v>
+        <v>0.148506498933955</v>
       </c>
       <c r="F7">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G7">
-        <v>0.14021</v>
+        <v>0.14851</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6088,22 +5841,22 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>2.08367693691281e-006</v>
+        <v>2.31061732654165e-006</v>
       </c>
       <c r="F8">
-        <v>3.8e-005</v>
+        <v>3.9e-005</v>
       </c>
       <c r="G8">
-        <v>2.1e-006</v>
+        <v>2.3e-006</v>
       </c>
       <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6117,22 +5870,22 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>1.14403403803927e-006</v>
+        <v>1.27371524714682e-006</v>
       </c>
       <c r="F9">
-        <v>2.2e-005</v>
+        <v>2.3e-005</v>
       </c>
       <c r="G9">
-        <v>1.1e-006</v>
+        <v>1.3e-006</v>
       </c>
       <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6146,22 +5899,22 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>9.02965400503753e-005</v>
+        <v>0.000100083775037017</v>
       </c>
       <c r="F10">
-        <v>0.00045</v>
+        <v>0.0005</v>
       </c>
       <c r="G10">
-        <v>9e-005</v>
+        <v>0.0001</v>
       </c>
       <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
         <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6175,22 +5928,22 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>0.00013209171713327</v>
+        <v>0.000140857579310846</v>
       </c>
       <c r="F11">
-        <v>0.00053</v>
+        <v>0.00056</v>
       </c>
       <c r="G11">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6204,22 +5957,22 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>3.26574911729803e-007</v>
+        <v>3.57539308114429e-007</v>
       </c>
       <c r="F12">
-        <v>6.5e-006</v>
+        <v>6.8e-006</v>
       </c>
       <c r="G12">
-        <v>3.3e-007</v>
+        <v>3.6e-007</v>
       </c>
       <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
         <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6233,22 +5986,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>1.26819499723232e-005</v>
+        <v>1.41449563595709e-005</v>
       </c>
       <c r="F13">
-        <v>0.00012</v>
+        <v>0.00014</v>
       </c>
       <c r="G13">
-        <v>1.3e-005</v>
+        <v>1.4e-005</v>
       </c>
       <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
         <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6262,22 +6015,22 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>5.04223249847023e-006</v>
+        <v>5.59090494406456e-006</v>
       </c>
       <c r="F14">
-        <v>5.7e-005</v>
+        <v>6.3e-005</v>
       </c>
       <c r="G14">
-        <v>5e-006</v>
+        <v>5.6e-006</v>
       </c>
       <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6291,22 +6044,22 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>1.22394883890285e-005</v>
+        <v>1.38299153629036e-005</v>
       </c>
       <c r="F15">
-        <v>0.00012</v>
+        <v>0.00014</v>
       </c>
       <c r="G15">
-        <v>1.2e-005</v>
+        <v>1.4e-005</v>
       </c>
       <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
         <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6320,22 +6073,22 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>2.35237571110011e-005</v>
+        <v>2.64068340906385e-005</v>
       </c>
       <c r="F16">
-        <v>0.00015</v>
+        <v>0.00017</v>
       </c>
       <c r="G16">
-        <v>2.4e-005</v>
+        <v>2.6e-005</v>
       </c>
       <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
         <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6349,22 +6102,22 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>3.12231995558669e-006</v>
+        <v>3.58106704145995e-006</v>
       </c>
       <c r="F17">
-        <v>4.7e-005</v>
+        <v>5e-005</v>
       </c>
       <c r="G17">
-        <v>3.1e-006</v>
+        <v>3.6e-006</v>
       </c>
       <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
         <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6378,22 +6131,22 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>2.13308145512998e-006</v>
+        <v>2.35763460993922e-006</v>
       </c>
       <c r="F18">
-        <v>3.8e-005</v>
+        <v>3.9e-005</v>
       </c>
       <c r="G18">
-        <v>2.1e-006</v>
+        <v>2.4e-006</v>
       </c>
       <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
         <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6407,22 +6160,22 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>1.34140833188402e-007</v>
+        <v>1.54765929245116e-007</v>
       </c>
       <c r="F19">
-        <v>2.8e-006</v>
+        <v>3.1e-006</v>
       </c>
       <c r="G19">
-        <v>1.3e-007</v>
+        <v>1.5e-007</v>
       </c>
       <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
         <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6436,22 +6189,22 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
-        <v>9.23892640221927e-008</v>
+        <v>1.06392193875047e-007</v>
       </c>
       <c r="F20">
-        <v>2e-006</v>
+        <v>2.2e-006</v>
       </c>
       <c r="G20">
-        <v>9.2e-008</v>
+        <v>1.1e-007</v>
       </c>
       <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
         <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6465,22 +6218,22 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>4.75916777390421e-006</v>
+        <v>5.2771850994122e-006</v>
       </c>
       <c r="F21">
-        <v>5.7e-005</v>
+        <v>6.3e-005</v>
       </c>
       <c r="G21">
-        <v>4.8e-006</v>
+        <v>5.3e-006</v>
       </c>
       <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
         <v>39</v>
-      </c>
-      <c r="I21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6494,51 +6247,22 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>4.20658126139953e-006</v>
+        <v>4.82015846603923e-006</v>
       </c>
       <c r="F22">
-        <v>5.5e-005</v>
+        <v>6.3e-005</v>
       </c>
       <c r="G22">
-        <v>4.2e-006</v>
+        <v>4.8e-006</v>
       </c>
       <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
         <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>3.13284607113453e-006</v>
-      </c>
-      <c r="F23">
-        <v>4.7e-005</v>
-      </c>
-      <c r="G23">
-        <v>3.1e-006</v>
-      </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6548,7 +6272,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6562,25 +6286,25 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6588,28 +6312,28 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>-6.04489669794928</v>
+        <v>-6.33621076742956</v>
       </c>
       <c r="D2">
         <v>0.464439946625318</v>
       </c>
       <c r="E2">
-        <v>-7.68317425147858</v>
+        <v>-7.32993209463152</v>
       </c>
       <c r="F2">
-        <v>7423.44470686426</v>
+        <v>6512.98700010626</v>
       </c>
       <c r="G2">
-        <v>644.646387466977</v>
+        <v>544.647032169673</v>
       </c>
       <c r="H2">
-        <v>6778.79831939728</v>
+        <v>5968.33996793659</v>
       </c>
       <c r="I2">
-        <v>8068.09109433124</v>
+        <v>7057.63403227594</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6620,25 +6344,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-18.9027697797397</v>
+        <v>-19.0053143991557</v>
       </c>
       <c r="D3">
         <v>0.765022690804562</v>
       </c>
       <c r="E3">
-        <v>-4.04714599880769</v>
+        <v>-4.02530931473855</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0572352876041784</v>
+        <v>0.0569264702565001</v>
       </c>
       <c r="H3">
-        <v>0.942764712395822</v>
+        <v>0.9430735297435</v>
       </c>
       <c r="I3">
-        <v>1.05723528760418</v>
+        <v>1.0569264702565</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6646,28 +6370,28 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>-8.37889671320806</v>
+        <v>-8.67021078268835</v>
       </c>
       <c r="D4">
         <v>0.248488939827461</v>
       </c>
       <c r="E4">
-        <v>-2.96565226106387</v>
+        <v>-2.86600805973039</v>
       </c>
       <c r="F4">
-        <v>6289.90412757245</v>
+        <v>5518.47092993282</v>
       </c>
       <c r="G4">
-        <v>226.657641773135</v>
+        <v>194.039989434291</v>
       </c>
       <c r="H4">
-        <v>6063.24648579931</v>
+        <v>5324.43094049853</v>
       </c>
       <c r="I4">
-        <v>6516.56176934558</v>
+        <v>5712.51091936711</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6678,25 +6402,25 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>-20.9977190251925</v>
+        <v>-21.1002636446086</v>
       </c>
       <c r="D5">
         <v>0.429824250684954</v>
       </c>
       <c r="E5">
-        <v>-2.04700448734104</v>
+        <v>-2.03705630377173</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0289490150823628</v>
+        <v>0.0288083265211159</v>
       </c>
       <c r="H5">
-        <v>0.971050984917637</v>
+        <v>0.971191673478884</v>
       </c>
       <c r="I5">
-        <v>1.02894901508236</v>
+        <v>1.02880832652112</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6704,28 +6428,28 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>-9.07709693903814</v>
+        <v>-9.36841100851843</v>
       </c>
       <c r="D6">
         <v>0.800959531396287</v>
       </c>
       <c r="E6">
-        <v>-8.82396141382578</v>
+        <v>-8.54957719796876</v>
       </c>
       <c r="F6">
-        <v>2183.49377016013</v>
+        <v>1915.69643223934</v>
       </c>
       <c r="G6">
-        <v>198.558492226332</v>
+        <v>169.057396042835</v>
       </c>
       <c r="H6">
-        <v>1984.93527793379</v>
+        <v>1746.63903619651</v>
       </c>
       <c r="I6">
-        <v>2382.05226238646</v>
+        <v>2084.75382828218</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6736,25 +6460,25 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-20.1695196385959</v>
+        <v>-20.2720642580119</v>
       </c>
       <c r="D7">
         <v>0.44334045255304</v>
       </c>
       <c r="E7">
-        <v>-2.19807144888407</v>
+        <v>-2.18695267985757</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0310854245407693</v>
+        <v>0.0309281814012276</v>
       </c>
       <c r="H7">
-        <v>0.968914575459231</v>
+        <v>0.969071818598772</v>
       </c>
       <c r="I7">
-        <v>1.03108542454077</v>
+        <v>1.03092818140123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6762,28 +6486,28 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>-5.42009735102545</v>
+        <v>-5.71141142050573</v>
       </c>
       <c r="D8">
         <v>0.436821443349373</v>
       </c>
       <c r="E8">
-        <v>-8.05929146764734</v>
+        <v>-7.64822232523907</v>
       </c>
       <c r="F8">
-        <v>3173.85813218227</v>
+        <v>2784.59631227137</v>
       </c>
       <c r="G8">
-        <v>284.655798239198</v>
+        <v>239.21162746573</v>
       </c>
       <c r="H8">
-        <v>2889.20233394307</v>
+        <v>2545.38468480564</v>
       </c>
       <c r="I8">
-        <v>3458.51393042147</v>
+        <v>3023.8079397371</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6794,25 +6518,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-17.0521192784884</v>
+        <v>-17.1546638979045</v>
       </c>
       <c r="D9">
         <v>0.671050660926967</v>
       </c>
       <c r="E9">
-        <v>-3.93529185415393</v>
+        <v>-3.91176804699122</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0556534311204085</v>
+        <v>0.055320754249127</v>
       </c>
       <c r="H9">
-        <v>0.944346568879591</v>
+        <v>0.944679245750873</v>
       </c>
       <c r="I9">
-        <v>1.05565343112041</v>
+        <v>1.05532075424913</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6820,28 +6544,28 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>-5.05409736628424</v>
+        <v>-5.34541143576452</v>
       </c>
       <c r="D10">
         <v>0.405908968894378</v>
       </c>
       <c r="E10">
-        <v>-8.03128510349221</v>
+        <v>-7.5935963727425</v>
       </c>
       <c r="F10">
-        <v>806.998328775633</v>
+        <v>708.023004409681</v>
       </c>
       <c r="G10">
-        <v>73.5999584361823</v>
+        <v>61.7572006015196</v>
       </c>
       <c r="H10">
-        <v>733.39837033945</v>
+        <v>646.265803808161</v>
       </c>
       <c r="I10">
-        <v>880.598287211815</v>
+        <v>769.7802050112</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6852,25 +6576,25 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-14.7105192418673</v>
+        <v>-14.8130638612834</v>
       </c>
       <c r="D11">
-        <v>0.635738309143996</v>
+        <v>0.635738309143995</v>
       </c>
       <c r="E11">
-        <v>-4.32165784695507</v>
+        <v>-4.29174082483781</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0611174713909997</v>
+        <v>0.0606943808067593</v>
       </c>
       <c r="H11">
-        <v>0.938882528609</v>
+        <v>0.939305619193241</v>
       </c>
       <c r="I11">
-        <v>1.061117471391</v>
+        <v>1.06069438080676</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6878,28 +6602,28 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>-10.6752975463379</v>
+        <v>-10.9666116158182</v>
       </c>
       <c r="D12">
         <v>0.594609622852058</v>
       </c>
       <c r="E12">
-        <v>-5.56995831049255</v>
+        <v>-5.42199946238994</v>
       </c>
       <c r="F12">
-        <v>1713.84717233489</v>
+        <v>1503.65023171313</v>
       </c>
       <c r="G12">
-        <v>115.926000754907</v>
+        <v>99.7254600644289</v>
       </c>
       <c r="H12">
-        <v>1597.92117157999</v>
+        <v>1403.9247716487</v>
       </c>
       <c r="I12">
-        <v>1829.7731730898</v>
+        <v>1603.37569177756</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6910,25 +6634,25 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-21.4183202977755</v>
+        <v>-21.5208649171916</v>
       </c>
       <c r="D13">
         <v>0.821982231316781</v>
       </c>
       <c r="E13">
-        <v>-3.8377530071868</v>
+        <v>-3.81946652460122</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.054274023518017</v>
+        <v>0.0540154136012108</v>
       </c>
       <c r="H13">
-        <v>0.945725976481983</v>
+        <v>0.945984586398789</v>
       </c>
       <c r="I13">
-        <v>1.05427402351802</v>
+        <v>1.05401541360121</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6936,28 +6660,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>-7.57889747614752</v>
+        <v>-7.8702115456278</v>
       </c>
       <c r="D14">
         <v>0.910923700100899</v>
       </c>
       <c r="E14">
-        <v>-12.0192112766768</v>
+        <v>-11.5743229368079</v>
       </c>
       <c r="F14">
-        <v>16954.3979357559</v>
+        <v>14875.0044905838</v>
       </c>
       <c r="G14">
-        <v>2261.68822835676</v>
+        <v>1923.07584294898</v>
       </c>
       <c r="H14">
-        <v>14692.7097073991</v>
+        <v>12951.9286476349</v>
       </c>
       <c r="I14">
-        <v>19216.0861641127</v>
+        <v>16798.0803335328</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6968,25 +6692,25 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>-21.628269409714</v>
+        <v>-21.7308140291301</v>
       </c>
       <c r="D15">
         <v>1.25163380612633</v>
       </c>
       <c r="E15">
-        <v>-5.78702707283727</v>
+        <v>-5.75971891549264</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0818409217222675</v>
+        <v>0.0814547260574654</v>
       </c>
       <c r="H15">
-        <v>0.918159078277733</v>
+        <v>0.918545273942535</v>
       </c>
       <c r="I15">
-        <v>1.08184092172227</v>
+        <v>1.08145472605747</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6994,28 +6718,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>-7.81429672236334</v>
+        <v>-8.10561079184362</v>
       </c>
       <c r="D16">
         <v>0.85829159367898</v>
       </c>
       <c r="E16">
-        <v>-10.9836063842147</v>
+        <v>-10.5888577149873</v>
       </c>
       <c r="F16">
-        <v>3397.41626967764</v>
+        <v>2980.73588099868</v>
       </c>
       <c r="G16">
-        <v>405.569849879021</v>
+        <v>344.739661313253</v>
       </c>
       <c r="H16">
-        <v>2991.84641979862</v>
+        <v>2635.99621968542</v>
       </c>
       <c r="I16">
-        <v>3802.98611955666</v>
+        <v>3325.47554231193</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7026,25 +6750,25 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>-19.544519002813</v>
+        <v>-19.647063622229</v>
       </c>
       <c r="D17">
         <v>0.913935729667109</v>
       </c>
       <c r="E17">
-        <v>-4.67617406975106</v>
+        <v>-4.65176754776254</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0661310878945934</v>
+        <v>0.0657859275505281</v>
       </c>
       <c r="H17">
-        <v>0.933868912105407</v>
+        <v>0.934214072449472</v>
       </c>
       <c r="I17">
-        <v>1.06613108789459</v>
+        <v>1.06578592755053</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7052,28 +6776,28 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>-7.59149742121588</v>
+        <v>-7.88281149069616</v>
       </c>
       <c r="D18">
         <v>0.563629195638259</v>
       </c>
       <c r="E18">
-        <v>-7.42447984060549</v>
+        <v>-7.15010369464616</v>
       </c>
       <c r="F18">
-        <v>2170.21489903809</v>
+        <v>1904.04616495656</v>
       </c>
       <c r="G18">
-        <v>187.278450024265</v>
+        <v>159.597743499772</v>
       </c>
       <c r="H18">
-        <v>1982.93644901382</v>
+        <v>1744.44842145679</v>
       </c>
       <c r="I18">
-        <v>2357.49334906235</v>
+        <v>2063.64390845633</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7084,25 +6808,25 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>-18.6751196141818</v>
+        <v>-18.7776642335978</v>
       </c>
       <c r="D19">
         <v>0.82139058545196</v>
       </c>
       <c r="E19">
-        <v>-4.39831499032649</v>
+        <v>-4.37429584017319</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0622015671090861</v>
+        <v>0.0618618850300514</v>
       </c>
       <c r="H19">
-        <v>0.937798432890914</v>
+        <v>0.938138114969949</v>
       </c>
       <c r="I19">
-        <v>1.06220156710909</v>
+        <v>1.06186188503005</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7110,28 +6834,28 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>-4.13509712214361</v>
+        <v>-4.4264111916239</v>
       </c>
       <c r="D20">
         <v>0.653468710015506</v>
       </c>
       <c r="E20">
-        <v>-15.8029833571781</v>
+        <v>-14.7629463627795</v>
       </c>
       <c r="F20">
-        <v>139.084896529772</v>
+        <v>122.026654576131</v>
       </c>
       <c r="G20">
-        <v>48.9067304824758</v>
+        <v>42.0403534244521</v>
       </c>
       <c r="H20">
-        <v>90.1781660472963</v>
+        <v>79.9863011516787</v>
       </c>
       <c r="I20">
-        <v>187.991627012248</v>
+        <v>164.067008000583</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7142,25 +6866,25 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>-11.2549190755465</v>
+        <v>-11.3574636949626</v>
       </c>
       <c r="D21">
         <v>3.53540258165813</v>
       </c>
       <c r="E21">
-        <v>-31.4120657636665</v>
+        <v>-31.1284515329439</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444233694251328</v>
+        <v>0.440222783335628</v>
       </c>
       <c r="H21">
-        <v>0.555766305748672</v>
+        <v>0.559777216664372</v>
       </c>
       <c r="I21">
-        <v>1.44423369425133</v>
+        <v>1.44022278333563</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7168,28 +6892,28 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>-6.33469696040045</v>
+        <v>-6.62601102988073</v>
       </c>
       <c r="D22">
         <v>0.70435677460008</v>
       </c>
       <c r="E22">
-        <v>-11.1190287239179</v>
+        <v>-10.630178118082</v>
       </c>
       <c r="F22">
-        <v>12919.1380609925</v>
+        <v>11334.6541351643</v>
       </c>
       <c r="G22">
-        <v>1519.53151785237</v>
+        <v>1280.16178644614</v>
       </c>
       <c r="H22">
-        <v>11399.6065431401</v>
+        <v>10054.4923487181</v>
       </c>
       <c r="I22">
-        <v>14438.6695788449</v>
+        <v>12614.8159216104</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7200,25 +6924,25 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>-19.9919191594699</v>
+        <v>-20.0944637788859</v>
       </c>
       <c r="D23">
         <v>0.766727439216306</v>
       </c>
       <c r="E23">
-        <v>-3.83518677271721</v>
+        <v>-3.81561532396768</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0542377314821058</v>
+        <v>0.053960949399537</v>
       </c>
       <c r="H23">
-        <v>0.945762268517894</v>
+        <v>0.946039050600463</v>
       </c>
       <c r="I23">
-        <v>1.05423773148211</v>
+        <v>1.05396094939954</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7226,28 +6950,28 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>-3.57529754633795</v>
+        <v>-3.86661161581823</v>
       </c>
       <c r="D24">
         <v>0.544019663924381</v>
       </c>
       <c r="E24">
-        <v>-15.2160668272659</v>
+        <v>-14.0696743810215</v>
       </c>
       <c r="F24">
-        <v>12437.3232723127</v>
+        <v>10911.9321268453</v>
       </c>
       <c r="G24">
-        <v>2000.09918398819</v>
+        <v>1635.76700286819</v>
       </c>
       <c r="H24">
-        <v>10437.2240883245</v>
+        <v>9276.16512397711</v>
       </c>
       <c r="I24">
-        <v>14437.4224563009</v>
+        <v>12547.6991297135</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7258,25 +6982,25 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>-17.1776859517672</v>
+        <v>-17.2802305711833</v>
       </c>
       <c r="D25">
         <v>0.893960115114459</v>
       </c>
       <c r="E25">
-        <v>-5.20419407843749</v>
+        <v>-5.1733112670686</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0735984184694805</v>
+        <v>0.0731616695626596</v>
       </c>
       <c r="H25">
-        <v>0.92640158153052</v>
+        <v>0.92683833043734</v>
       </c>
       <c r="I25">
-        <v>1.07359841846948</v>
+        <v>1.07316166956266</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7284,28 +7008,28 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>-4.60329704279791</v>
+        <v>-4.8946111122782</v>
       </c>
       <c r="D26">
         <v>1.14127324846968</v>
       </c>
       <c r="E26">
-        <v>-24.7925180117424</v>
+        <v>-23.316934119787</v>
       </c>
       <c r="F26">
-        <v>2365.1600773366</v>
+        <v>2075.08204683194</v>
       </c>
       <c r="G26">
-        <v>594.672598704117</v>
+        <v>491.473415969992</v>
       </c>
       <c r="H26">
-        <v>1770.48747863248</v>
+        <v>1583.60863086194</v>
       </c>
       <c r="I26">
-        <v>2959.83267604072</v>
+        <v>2566.55546280193</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7316,25 +7040,25 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>-15.811019157944</v>
+        <v>-15.9135637773601</v>
       </c>
       <c r="D27">
         <v>0.661466813739186</v>
       </c>
       <c r="E27">
-        <v>-4.18358112865129</v>
+        <v>-4.15662275900916</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.059164771714268</v>
+        <v>0.0587835227945943</v>
       </c>
       <c r="H27">
-        <v>0.940835228285732</v>
+        <v>0.941216477205406</v>
       </c>
       <c r="I27">
-        <v>1.05916477171427</v>
+        <v>1.05878352279459</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7342,28 +7066,28 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>-4.65049743647467</v>
+        <v>-4.94181150595495</v>
       </c>
       <c r="D28">
         <v>0.485510412056126</v>
       </c>
       <c r="E28">
-        <v>-10.4399673086191</v>
+        <v>-9.82454331718397</v>
       </c>
       <c r="F28">
-        <v>6799.54260067322</v>
+        <v>5965.60415192477</v>
       </c>
       <c r="G28">
-        <v>757.554054825898</v>
+        <v>629.870578373158</v>
       </c>
       <c r="H28">
-        <v>6041.98854584732</v>
+        <v>5335.73357355162</v>
       </c>
       <c r="I28">
-        <v>7557.09665549912</v>
+        <v>6595.47473029793</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7374,25 +7098,25 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>-17.3817194219211</v>
+        <v>-17.4842640413371</v>
       </c>
       <c r="D29">
-        <v>0.676203374712975</v>
+        <v>0.676203374712974</v>
       </c>
       <c r="E29">
-        <v>-3.89031348567379</v>
+        <v>-3.86749692817646</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.0550173409332282</v>
+        <v>0.0546946660826344</v>
       </c>
       <c r="H29">
-        <v>0.944982659066772</v>
+        <v>0.945305333917366</v>
       </c>
       <c r="I29">
-        <v>1.05501734093323</v>
+        <v>1.05469466608263</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7400,28 +7124,28 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>-8.42564659113775</v>
+        <v>-8.71696066061804</v>
       </c>
       <c r="D30">
         <v>0.455279960244169</v>
       </c>
       <c r="E30">
-        <v>-5.4035017410182</v>
+        <v>-5.2229209006421</v>
       </c>
       <c r="F30">
-        <v>1699.7683413207</v>
+        <v>1491.29811662465</v>
       </c>
       <c r="G30">
-        <v>97.7940398312842</v>
+        <v>83.2204932874733</v>
       </c>
       <c r="H30">
-        <v>1601.97430148942</v>
+        <v>1408.07762333718</v>
       </c>
       <c r="I30">
-        <v>1797.56238115199</v>
+        <v>1574.51860991213</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7432,25 +7156,25 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>-19.1567690129855</v>
+        <v>-19.2593136324016</v>
       </c>
       <c r="D31">
         <v>0.378485017725118</v>
       </c>
       <c r="E31">
-        <v>-1.97572470320314</v>
+        <v>-1.96520512074927</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.0279409667078543</v>
+        <v>0.0277921973460868</v>
       </c>
       <c r="H31">
-        <v>0.972059033292146</v>
+        <v>0.972207802653913</v>
       </c>
       <c r="I31">
-        <v>1.02794096670785</v>
+        <v>1.02779219734609</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7458,28 +7182,28 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>-7.7544975280274</v>
+        <v>-8.04581159750769</v>
       </c>
       <c r="D32">
         <v>0.701242503683516</v>
       </c>
       <c r="E32">
-        <v>-9.04304245567152</v>
+        <v>-8.71562172672222</v>
       </c>
       <c r="F32">
-        <v>3095.21085103169</v>
+        <v>2715.59482577094</v>
       </c>
       <c r="G32">
-        <v>297.332895197461</v>
+        <v>252.352484989925</v>
       </c>
       <c r="H32">
-        <v>2797.87795583423</v>
+        <v>2463.24234078102</v>
       </c>
       <c r="I32">
-        <v>3392.54374622916</v>
+        <v>2967.94731076087</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7490,25 +7214,25 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>-19.3503195043185</v>
+        <v>-19.4528641237346</v>
       </c>
       <c r="D33">
         <v>0.627109416025376</v>
       </c>
       <c r="E33">
-        <v>-3.24082202304422</v>
+        <v>-3.22373822197337</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.0458321445822655</v>
+        <v>0.0455905431505526</v>
       </c>
       <c r="H33">
-        <v>0.954167855417735</v>
+        <v>0.954409456849447</v>
       </c>
       <c r="I33">
-        <v>1.04583214458227</v>
+        <v>1.04559054315055</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7516,28 +7240,28 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>-4.794897079419</v>
+        <v>-5.08621114889929</v>
       </c>
       <c r="D34">
         <v>0.615804978881667</v>
       </c>
       <c r="E34">
-        <v>-12.8429238142539</v>
+        <v>-12.1073420047639</v>
       </c>
       <c r="F34">
-        <v>701.073736247316</v>
+        <v>615.08966667086</v>
       </c>
       <c r="G34">
-        <v>91.949964175459</v>
+        <v>76.2227333294217</v>
       </c>
       <c r="H34">
-        <v>609.123772071857</v>
+        <v>538.866933341438</v>
       </c>
       <c r="I34">
-        <v>793.023700422775</v>
+        <v>691.312400000281</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7548,25 +7272,25 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>-14.2483194585421</v>
+        <v>-14.3508640779582</v>
       </c>
       <c r="D35">
         <v>0.379070544490213</v>
       </c>
       <c r="E35">
-        <v>-2.66045792693786</v>
+        <v>-2.64144752839264</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.0376245568239852</v>
+        <v>0.0373557091894976</v>
       </c>
       <c r="H35">
-        <v>0.962375443176015</v>
+        <v>0.962644290810502</v>
       </c>
       <c r="I35">
-        <v>1.03762455682399</v>
+        <v>1.0373557091895</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7574,28 +7298,28 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>-2.59649696345221</v>
+        <v>-2.88781103293249</v>
       </c>
       <c r="D36">
         <v>0.425063084629401</v>
       </c>
       <c r="E36">
-        <v>-16.3706366929177</v>
+        <v>-14.7192139576308</v>
       </c>
       <c r="F36">
-        <v>1347.82960965902</v>
+        <v>1182.52335306685</v>
       </c>
       <c r="G36">
-        <v>224.384667259508</v>
+        <v>177.640700876496</v>
       </c>
       <c r="H36">
-        <v>1123.44494239951</v>
+        <v>1004.88265219035</v>
       </c>
       <c r="I36">
-        <v>1572.21427691853</v>
+        <v>1360.16405394335</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7606,25 +7330,25 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>-12.9929193730929</v>
+        <v>-13.095463992509</v>
       </c>
       <c r="D37">
         <v>0.393091159081599</v>
       </c>
       <c r="E37">
-        <v>-3.02542598621564</v>
+        <v>-3.00173525204193</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.0427859846166215</v>
+        <v>0.0424509470409111</v>
       </c>
       <c r="H37">
-        <v>0.957214015383378</v>
+        <v>0.957549052959089</v>
       </c>
       <c r="I37">
-        <v>1.04278598461662</v>
+        <v>1.04245094704091</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7632,28 +7356,28 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>-3.60529708857428</v>
+        <v>-3.89661115805456</v>
       </c>
       <c r="D38">
         <v>0.417338048109167</v>
       </c>
       <c r="E38">
-        <v>-11.5756909307633</v>
+        <v>-10.710282119028</v>
       </c>
       <c r="F38">
-        <v>1230.49417297479</v>
+        <v>1079.57866849615</v>
       </c>
       <c r="G38">
-        <v>145.209032878509</v>
+        <v>118.211204883015</v>
       </c>
       <c r="H38">
-        <v>1085.28514009628</v>
+        <v>961.367463613134</v>
       </c>
       <c r="I38">
-        <v>1375.7032058533</v>
+        <v>1197.78987337916</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7664,199 +7388,141 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>-13.8703191991427</v>
+        <v>-13.9728638185588</v>
       </c>
       <c r="D39">
         <v>0.318230627787609</v>
       </c>
       <c r="E39">
-        <v>-2.29432807723183</v>
+        <v>-2.27749036933241</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0.0324466988335464</v>
+        <v>0.03220857768484</v>
       </c>
       <c r="H39">
-        <v>0.967553301166454</v>
+        <v>0.96779142231516</v>
       </c>
       <c r="I39">
-        <v>1.03244669883355</v>
+        <v>1.03220857768484</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>0.834902954150333</v>
+        <v>-2.24421095053503</v>
       </c>
       <c r="D40">
-        <v>0.566901973685574</v>
+        <v>0.648552434155945</v>
       </c>
       <c r="E40">
-        <v>67.9003434911187</v>
+        <v>-28.8989069410488</v>
       </c>
       <c r="F40">
-        <v>483.114919306144</v>
+        <v>908.947284734336</v>
       </c>
       <c r="G40">
-        <v>329.321493270808</v>
+        <v>264.945695417162</v>
       </c>
       <c r="H40">
-        <v>153.793426035336</v>
+        <v>644.001589317174</v>
       </c>
       <c r="I40">
-        <v>812.436412576951</v>
+        <v>1173.8929801515</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>-8.08131964164761</v>
+        <v>-12.0722637666789</v>
       </c>
       <c r="D41">
-        <v>0.486128681909018</v>
+        <v>0.459633135286982</v>
       </c>
       <c r="E41">
-        <v>-6.01546162589241</v>
+        <v>-3.80734834965777</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0.0850714741527196</v>
+        <v>0.0538440367276484</v>
       </c>
       <c r="H41">
-        <v>0.91492852584728</v>
+        <v>0.946155963272352</v>
       </c>
       <c r="I41">
-        <v>1.08507147415272</v>
+        <v>1.05384403672765</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42">
-        <v>-1.95289688105474</v>
+        <v>-9.6800115029032</v>
       </c>
       <c r="D42">
-        <v>0.648552434155945</v>
+        <v>0.658611037234248</v>
       </c>
       <c r="E42">
-        <v>-33.2097634262013</v>
+        <v>-6.80382494418234</v>
       </c>
       <c r="F42">
-        <v>1036.01003803165</v>
+        <v>917.280350929604</v>
       </c>
       <c r="G42">
-        <v>346.348820138404</v>
+        <v>64.0328179588247</v>
       </c>
       <c r="H42">
-        <v>689.661217893248</v>
+        <v>853.247532970779</v>
       </c>
       <c r="I42">
-        <v>1382.35885817006</v>
+        <v>981.313168888428</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>-11.9697191472628</v>
+        <v>-19.5212304287679</v>
       </c>
       <c r="D43">
-        <v>0.459633135286982</v>
+        <v>0.304836774411456</v>
       </c>
       <c r="E43">
-        <v>-3.83996591425529</v>
+        <v>-1.56156537121874</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>0.0543053187499023</v>
+        <v>0.0220838692650972</v>
       </c>
       <c r="H43">
-        <v>0.945694681250098</v>
+        <v>0.977916130734903</v>
       </c>
       <c r="I43">
-        <v>1.0543053187499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44">
-        <v>-9.38869743342291</v>
-      </c>
-      <c r="D44">
-        <v>0.658611037234248</v>
-      </c>
-      <c r="E44">
-        <v>-7.01493515905254</v>
-      </c>
-      <c r="F44">
-        <v>1045.50799283153</v>
-      </c>
-      <c r="G44">
-        <v>75.1556812952134</v>
-      </c>
-      <c r="H44">
-        <v>970.352311536318</v>
-      </c>
-      <c r="I44">
-        <v>1120.66367412675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>-19.4186858093519</v>
-      </c>
-      <c r="D45">
-        <v>0.304836774411456</v>
-      </c>
-      <c r="E45">
-        <v>-1.56981155884735</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0.0222004879689197</v>
-      </c>
-      <c r="H45">
-        <v>0.97779951203108</v>
-      </c>
-      <c r="I45">
-        <v>1.02220048796892</v>
+        <v>1.0220838692651</v>
       </c>
     </row>
   </sheetData>
